--- a/filtered_combined.xlsx
+++ b/filtered_combined.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tesla" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="JP Morgan" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Combined" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tesla" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JP Morgan" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Combined" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,22 +435,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="25" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2362,18 +2362,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4759,22 +4759,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="25" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/filtered_combined.xlsx
+++ b/filtered_combined.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,17 +550,31 @@
       <c r="D2" t="n">
         <v>1196908000</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>3122522000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-6.93</v>
+      </c>
+      <c r="G2" t="n">
+        <v>923503000</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>-888663000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1640132000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-716629000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4046025000</v>
+      </c>
       <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -571,35 +585,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2016-03-31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>3246301000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>995241000</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>274776000</v>
+        <v>252468000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-293188000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>512816000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-238040000</v>
-      </c>
+        <v>-282267000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1270017000</v>
+        <v>1147048000</v>
       </c>
       <c r="P3" t="inlineStr"/>
     </row>
@@ -611,37 +617,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2016-09-30</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>3084257000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1661701000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>636735000</v>
+        <v>274776000</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>21878000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>551113000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>85622000</v>
-      </c>
+        <v>-293188000</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>2298436000</v>
+        <v>1270017000</v>
       </c>
       <c r="P4" t="inlineStr"/>
     </row>
@@ -653,31 +649,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22664076000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3393216000</v>
-      </c>
+          <t>2016-09-30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>16750167000</v>
-      </c>
+      <c r="G5" t="n">
+        <v>636735000</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>21878000</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>4752911000</v>
-      </c>
+      <c r="O5" t="n">
+        <v>2298436000</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -687,39 +681,51 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2017-03-31</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>2016-12-31</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22664076000</v>
+      </c>
       <c r="D6" t="n">
-        <v>4006593000</v>
+        <v>3393000000</v>
       </c>
       <c r="E6" t="n">
-        <v>2028324000</v>
+        <v>5400875000</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.04</v>
+        <v>-4.68</v>
       </c>
       <c r="G6" t="n">
-        <v>667946000</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>435278000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16750167000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3743976000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1081085000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-123829000</v>
+      </c>
       <c r="L6" t="n">
-        <v>-330277000</v>
+        <v>-121337000</v>
       </c>
       <c r="M6" t="n">
-        <v>925495000</v>
+        <v>2266597000</v>
       </c>
       <c r="N6" t="n">
-        <v>-257549000</v>
+        <v>-667340000</v>
       </c>
       <c r="O6" t="n">
-        <v>2696270000</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>2284631000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4752911000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -729,51 +735,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2017-06-30</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>26043705000</v>
-      </c>
+          <t>2017-03-31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>3035924000</v>
+        <v>4006593000</v>
       </c>
       <c r="E7" t="n">
-        <v>2122942000</v>
+        <v>2028324000</v>
       </c>
       <c r="F7" t="n">
         <v>-2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>666615000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>19459902000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2027516000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-2039631000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-269983000</v>
-      </c>
+        <v>667946000</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-336397000</v>
+        <v>-330277000</v>
       </c>
       <c r="M7" t="n">
-        <v>907531000</v>
+        <v>925495000</v>
       </c>
       <c r="N7" t="n">
-        <v>-240916000</v>
+        <v>-257549000</v>
       </c>
       <c r="O7" t="n">
-        <v>2789557000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5105752000</v>
-      </c>
+        <v>2696270000</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -783,51 +777,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>28107074000</v>
-      </c>
+          <t>2017-06-30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>3530030000</v>
+        <v>3035924000</v>
       </c>
       <c r="E8" t="n">
-        <v>2535535000</v>
+        <v>2122942000</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.7</v>
+        <v>-2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>449140000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>21929057000</v>
-      </c>
+        <v>666615000</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>4129022000</v>
+        <v>2027516000</v>
       </c>
       <c r="J8" t="n">
-        <v>-3284358000</v>
+        <v>-2039631000</v>
       </c>
       <c r="K8" t="n">
-        <v>-570545000</v>
+        <v>-269983000</v>
       </c>
       <c r="L8" t="n">
-        <v>-619376000</v>
+        <v>-336397000</v>
       </c>
       <c r="M8" t="n">
-        <v>984620000</v>
+        <v>907531000</v>
       </c>
       <c r="N8" t="n">
-        <v>-535480000</v>
+        <v>-240916000</v>
       </c>
       <c r="O8" t="n">
-        <v>2984675000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4711480000</v>
-      </c>
+        <v>2789557000</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -837,31 +825,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>28655372000</v>
-      </c>
+          <t>2017-09-30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>3368000000</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>23022980000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>4237242000</v>
-      </c>
+        <v>3530030000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2535535000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>449140000</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>4129022000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-3284358000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-570545000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-619376000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>984620000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-535480000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2984675000</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -871,50 +873,50 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27271429000</v>
+        <v>28655372000</v>
       </c>
       <c r="D10" t="n">
-        <v>2665673000</v>
+        <v>3368000000</v>
       </c>
       <c r="E10" t="n">
-        <v>2952225000</v>
+        <v>9536000000</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.19</v>
+        <v>-11.83</v>
       </c>
       <c r="G10" t="n">
-        <v>456526000</v>
+        <v>438786000</v>
       </c>
       <c r="H10" t="n">
-        <v>21551021000</v>
+        <v>23022980000</v>
       </c>
       <c r="I10" t="n">
-        <v>371660000</v>
+        <v>4415000000</v>
       </c>
       <c r="J10" t="n">
-        <v>-728637000</v>
+        <v>-4196000000</v>
       </c>
       <c r="K10" t="n">
-        <v>-398376000</v>
+        <v>-61000000</v>
       </c>
       <c r="L10" t="n">
-        <v>-709551000</v>
+        <v>-675350000</v>
       </c>
       <c r="M10" t="n">
-        <v>1053500000</v>
+        <v>3855000000</v>
       </c>
       <c r="N10" t="n">
-        <v>-596974000</v>
+        <v>-1632000000</v>
       </c>
       <c r="O10" t="n">
-        <v>3408751000</v>
+        <v>3288249000</v>
       </c>
       <c r="P10" t="n">
-        <v>4450695000</v>
+        <v>4237242000</v>
       </c>
     </row>
     <row r="11">
@@ -925,50 +927,50 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>2018-03-31</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27910000000</v>
+        <v>27271429000</v>
       </c>
       <c r="D11" t="n">
-        <v>2236424000</v>
+        <v>2665673000</v>
       </c>
       <c r="E11" t="n">
-        <v>3383301000</v>
+        <v>2952225000</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.22</v>
+        <v>-4.19</v>
       </c>
       <c r="G11" t="n">
-        <v>618930000</v>
+        <v>456000000</v>
       </c>
       <c r="H11" t="n">
-        <v>22642887000</v>
+        <v>21551021000</v>
       </c>
       <c r="I11" t="n">
-        <v>770282000</v>
+        <v>371660000</v>
       </c>
       <c r="J11" t="n">
-        <v>-1411454000</v>
+        <v>-728637000</v>
       </c>
       <c r="K11" t="n">
-        <v>-528040000</v>
+        <v>-398376000</v>
       </c>
       <c r="L11" t="n">
-        <v>-717539000</v>
+        <v>-709000000</v>
       </c>
       <c r="M11" t="n">
-        <v>1240322000</v>
+        <v>1053500000</v>
       </c>
       <c r="N11" t="n">
-        <v>-621392000</v>
+        <v>-596974000</v>
       </c>
       <c r="O11" t="n">
-        <v>4002231000</v>
+        <v>3409000000</v>
       </c>
       <c r="P11" t="n">
-        <v>3906421000</v>
+        <v>4450695000</v>
       </c>
     </row>
     <row r="12">
@@ -979,50 +981,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>2018-06-30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29262713000</v>
+        <v>27910000000</v>
       </c>
       <c r="D12" t="n">
-        <v>2967000000</v>
+        <v>2236424000</v>
       </c>
       <c r="E12" t="n">
-        <v>5300000000</v>
+        <v>3383301000</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>-4.22</v>
       </c>
       <c r="G12" t="n">
-        <v>1524000000</v>
+        <v>619000000</v>
       </c>
       <c r="H12" t="n">
-        <v>23409144000</v>
+        <v>22642887000</v>
       </c>
       <c r="I12" t="n">
-        <v>686000000</v>
+        <v>770282000</v>
       </c>
       <c r="J12" t="n">
-        <v>-1972000000</v>
+        <v>-1411454000</v>
       </c>
       <c r="K12" t="n">
-        <v>863000000</v>
+        <v>-528040000</v>
       </c>
       <c r="L12" t="n">
-        <v>311000000</v>
+        <v>-718000000</v>
       </c>
       <c r="M12" t="n">
-        <v>1108000000</v>
+        <v>1240322000</v>
       </c>
       <c r="N12" t="n">
-        <v>416000000</v>
+        <v>-621392000</v>
       </c>
       <c r="O12" t="n">
-        <v>6824000000</v>
+        <v>4002000000</v>
       </c>
       <c r="P12" t="n">
-        <v>4508838000</v>
+        <v>3906421000</v>
       </c>
     </row>
     <row r="13">
@@ -1033,30 +1035,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>2018-09-30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29740000000</v>
+        <v>29262713000</v>
       </c>
       <c r="D13" t="n">
-        <v>3686000000</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>2967000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5300000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1524000000</v>
+      </c>
       <c r="H13" t="n">
-        <v>23427000000</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+        <v>23409144000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>686000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1972000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>863000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>311000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1108000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>416000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6824000000</v>
+      </c>
       <c r="P13" t="n">
-        <v>4923000000</v>
+        <v>4508838000</v>
       </c>
     </row>
     <row r="14">
@@ -1067,50 +1089,50 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2018-12-31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28912524000</v>
+        <v>29740000000</v>
       </c>
       <c r="D14" t="n">
-        <v>2198000000</v>
+        <v>3686000000</v>
       </c>
       <c r="E14" t="n">
-        <v>3975000000</v>
+        <v>17419000000</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.1</v>
+        <v>-1.14</v>
       </c>
       <c r="G14" t="n">
-        <v>566000000</v>
+        <v>1443000000</v>
       </c>
       <c r="H14" t="n">
-        <v>22874618000</v>
+        <v>23427000000</v>
       </c>
       <c r="I14" t="n">
-        <v>-653000000</v>
+        <v>574000000</v>
       </c>
       <c r="J14" t="n">
-        <v>-306000000</v>
+        <v>-2337000000</v>
       </c>
       <c r="K14" t="n">
-        <v>-640000000</v>
+        <v>2098000000</v>
       </c>
       <c r="L14" t="n">
-        <v>-702000000</v>
+        <v>140000000</v>
       </c>
       <c r="M14" t="n">
-        <v>1088000000</v>
+        <v>4430000000</v>
       </c>
       <c r="N14" t="n">
-        <v>-522000000</v>
+        <v>-388000000</v>
       </c>
       <c r="O14" t="n">
-        <v>4541000000</v>
+        <v>7226000000</v>
       </c>
       <c r="P14" t="n">
-        <v>4605596000</v>
+        <v>4923000000</v>
       </c>
     </row>
     <row r="15">
@@ -1121,50 +1143,50 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>2019-03-31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>31872597000</v>
+        <v>28912524000</v>
       </c>
       <c r="D15" t="n">
-        <v>4955000000</v>
+        <v>2198000000</v>
       </c>
       <c r="E15" t="n">
-        <v>5429000000</v>
+        <v>3975000000</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.31</v>
+        <v>-4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>921000000</v>
+        <v>566000000</v>
       </c>
       <c r="H15" t="n">
-        <v>24722136000</v>
+        <v>22874618000</v>
       </c>
       <c r="I15" t="n">
-        <v>1490000000</v>
+        <v>-653000000</v>
       </c>
       <c r="J15" t="n">
-        <v>-547000000</v>
+        <v>-306000000</v>
       </c>
       <c r="K15" t="n">
-        <v>224000000</v>
+        <v>-640000000</v>
       </c>
       <c r="L15" t="n">
-        <v>-408000000</v>
+        <v>-702000000</v>
       </c>
       <c r="M15" t="n">
         <v>1088000000</v>
       </c>
       <c r="N15" t="n">
-        <v>-167000000</v>
+        <v>-522000000</v>
       </c>
       <c r="O15" t="n">
-        <v>6350000000</v>
+        <v>4541000000</v>
       </c>
       <c r="P15" t="n">
-        <v>5715393000</v>
+        <v>4605596000</v>
       </c>
     </row>
     <row r="16">
@@ -1175,50 +1197,50 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>2019-06-30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32795000000</v>
+        <v>31872597000</v>
       </c>
       <c r="D16" t="n">
-        <v>5338000000</v>
+        <v>4955000000</v>
       </c>
       <c r="E16" t="n">
-        <v>5112000000</v>
+        <v>5429000000</v>
       </c>
       <c r="F16" t="n">
-        <v>0.16</v>
+        <v>-2.31</v>
       </c>
       <c r="G16" t="n">
-        <v>1191000000</v>
+        <v>921000000</v>
       </c>
       <c r="H16" t="n">
-        <v>25313000000</v>
+        <v>24722136000</v>
       </c>
       <c r="I16" t="n">
-        <v>1608000000</v>
+        <v>1490000000</v>
       </c>
       <c r="J16" t="n">
-        <v>-1033000000</v>
+        <v>-547000000</v>
       </c>
       <c r="K16" t="n">
-        <v>980000000</v>
+        <v>224000000</v>
       </c>
       <c r="L16" t="n">
-        <v>143000000</v>
+        <v>-408000000</v>
       </c>
       <c r="M16" t="n">
-        <v>930000000</v>
+        <v>1088000000</v>
       </c>
       <c r="N16" t="n">
-        <v>261000000</v>
+        <v>-167000000</v>
       </c>
       <c r="O16" t="n">
-        <v>6303000000</v>
+        <v>6350000000</v>
       </c>
       <c r="P16" t="n">
-        <v>6040000000</v>
+        <v>5715393000</v>
       </c>
     </row>
     <row r="17">
@@ -1229,30 +1251,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-09-30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34309000000</v>
+        <v>32795000000</v>
       </c>
       <c r="D17" t="n">
-        <v>6268000000</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>5338000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5112000000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1191000000</v>
+      </c>
       <c r="H17" t="n">
-        <v>26199000000</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+        <v>25313000000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1608000000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1033000000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>980000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>143000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>930000000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>261000000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6303000000</v>
+      </c>
       <c r="P17" t="n">
-        <v>6618000000</v>
+        <v>6040000000</v>
       </c>
     </row>
     <row r="18">
@@ -1263,50 +1305,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>37250000000</v>
+        <v>34309000000</v>
       </c>
       <c r="D18" t="n">
-        <v>8080000000</v>
+        <v>6268000000</v>
       </c>
       <c r="E18" t="n">
-        <v>4751000000</v>
+        <v>20509000000</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02</v>
+        <v>-0.98</v>
       </c>
       <c r="G18" t="n">
-        <v>1234000000</v>
+        <v>1391000000</v>
       </c>
       <c r="H18" t="n">
-        <v>26518000000</v>
+        <v>26199000000</v>
       </c>
       <c r="I18" t="n">
-        <v>2708000000</v>
+        <v>1529000000</v>
       </c>
       <c r="J18" t="n">
-        <v>-480000000</v>
+        <v>-1436000000</v>
       </c>
       <c r="K18" t="n">
-        <v>-440000000</v>
+        <v>2405000000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000000</v>
+        <v>105000000</v>
       </c>
       <c r="M18" t="n">
-        <v>951000000</v>
+        <v>4138000000</v>
       </c>
       <c r="N18" t="n">
-        <v>283000000</v>
+        <v>-69000000</v>
       </c>
       <c r="O18" t="n">
-        <v>5985000000</v>
+        <v>7384000000</v>
       </c>
       <c r="P18" t="n">
-        <v>9173000000</v>
+        <v>6618000000</v>
       </c>
     </row>
     <row r="19">
@@ -1317,50 +1359,50 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38135000000</v>
+        <v>37250000000</v>
       </c>
       <c r="D19" t="n">
-        <v>8615000000</v>
+        <v>8080000000</v>
       </c>
       <c r="E19" t="n">
-        <v>4769000000</v>
+        <v>4751000000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G19" t="n">
-        <v>1267000000</v>
+        <v>1234000000</v>
       </c>
       <c r="H19" t="n">
-        <v>26754000000</v>
+        <v>26518000000</v>
       </c>
       <c r="I19" t="n">
-        <v>2831000000</v>
+        <v>2708000000</v>
       </c>
       <c r="J19" t="n">
-        <v>-1046000000</v>
+        <v>-480000000</v>
       </c>
       <c r="K19" t="n">
-        <v>524000000</v>
+        <v>-440000000</v>
       </c>
       <c r="L19" t="n">
-        <v>104000000</v>
+        <v>16000000</v>
       </c>
       <c r="M19" t="n">
-        <v>940000000</v>
+        <v>951000000</v>
       </c>
       <c r="N19" t="n">
-        <v>327000000</v>
+        <v>283000000</v>
       </c>
       <c r="O19" t="n">
-        <v>6036000000</v>
+        <v>5985000000</v>
       </c>
       <c r="P19" t="n">
-        <v>9855000000</v>
+        <v>9173000000</v>
       </c>
     </row>
     <row r="20">
@@ -1371,50 +1413,50 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>45691000000</v>
+        <v>38135000000</v>
       </c>
       <c r="D20" t="n">
-        <v>14531000000</v>
+        <v>8615000000</v>
       </c>
       <c r="E20" t="n">
-        <v>6708000000</v>
+        <v>4769000000</v>
       </c>
       <c r="F20" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2063000000</v>
+        <v>1267000000</v>
       </c>
       <c r="H20" t="n">
-        <v>28143000000</v>
+        <v>26754000000</v>
       </c>
       <c r="I20" t="n">
-        <v>7281000000</v>
+        <v>2831000000</v>
       </c>
       <c r="J20" t="n">
-        <v>-2085000000</v>
+        <v>-1046000000</v>
       </c>
       <c r="K20" t="n">
-        <v>2924000000</v>
+        <v>524000000</v>
       </c>
       <c r="L20" t="n">
-        <v>331000000</v>
+        <v>104000000</v>
       </c>
       <c r="M20" t="n">
-        <v>1254000000</v>
+        <v>940000000</v>
       </c>
       <c r="N20" t="n">
-        <v>809000000</v>
+        <v>327000000</v>
       </c>
       <c r="O20" t="n">
-        <v>8771000000</v>
+        <v>6036000000</v>
       </c>
       <c r="P20" t="n">
-        <v>16031000000</v>
+        <v>9855000000</v>
       </c>
     </row>
     <row r="21">
@@ -1425,30 +1467,50 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>52148000000</v>
+        <v>45691000000</v>
       </c>
       <c r="D21" t="n">
-        <v>19384000000</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>14531000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6708000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2063000000</v>
+      </c>
       <c r="H21" t="n">
-        <v>28418000000</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+        <v>28143000000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7281000000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-2085000000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2924000000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>331000000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1254000000</v>
+      </c>
+      <c r="N21" t="n">
+        <v>809000000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8771000000</v>
+      </c>
       <c r="P21" t="n">
-        <v>22225000000</v>
+        <v>16031000000</v>
       </c>
     </row>
     <row r="22">
@@ -1459,50 +1521,50 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>52972000000</v>
+        <v>52148000000</v>
       </c>
       <c r="D22" t="n">
-        <v>17141000000</v>
+        <v>19384000000</v>
       </c>
       <c r="E22" t="n">
-        <v>8174000000</v>
+        <v>24906000000</v>
       </c>
       <c r="F22" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="G22" t="n">
-        <v>2215000000</v>
+        <v>2066000000</v>
       </c>
       <c r="H22" t="n">
-        <v>28507000000</v>
+        <v>28418000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-1016000000</v>
+        <v>9973000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-2582000000</v>
+        <v>-3132000000</v>
       </c>
       <c r="K22" t="n">
-        <v>1641000000</v>
+        <v>5943000000</v>
       </c>
       <c r="L22" t="n">
-        <v>438000000</v>
+        <v>270000000</v>
       </c>
       <c r="M22" t="n">
-        <v>1621000000</v>
+        <v>4636000000</v>
       </c>
       <c r="N22" t="n">
-        <v>594000000</v>
+        <v>1994000000</v>
       </c>
       <c r="O22" t="n">
-        <v>10389000000</v>
+        <v>10744000000</v>
       </c>
       <c r="P22" t="n">
-        <v>23017000000</v>
+        <v>22225000000</v>
       </c>
     </row>
     <row r="23">
@@ -1513,50 +1575,50 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55146000000</v>
+        <v>52972000000</v>
       </c>
       <c r="D23" t="n">
-        <v>16229000000</v>
+        <v>17141000000</v>
       </c>
       <c r="E23" t="n">
-        <v>9074000000</v>
+        <v>8174000000</v>
       </c>
       <c r="F23" t="n">
-        <v>1.02</v>
+        <v>0.39</v>
       </c>
       <c r="G23" t="n">
-        <v>2884000000</v>
+        <v>2215000000</v>
       </c>
       <c r="H23" t="n">
-        <v>28896000000</v>
+        <v>28507000000</v>
       </c>
       <c r="I23" t="n">
-        <v>-2565000000</v>
+        <v>-1016000000</v>
       </c>
       <c r="J23" t="n">
-        <v>-4097000000</v>
+        <v>-2582000000</v>
       </c>
       <c r="K23" t="n">
-        <v>3765000000</v>
+        <v>1641000000</v>
       </c>
       <c r="L23" t="n">
-        <v>1142000000</v>
+        <v>438000000</v>
       </c>
       <c r="M23" t="n">
-        <v>1572000000</v>
+        <v>1621000000</v>
       </c>
       <c r="N23" t="n">
-        <v>1312000000</v>
+        <v>594000000</v>
       </c>
       <c r="O23" t="n">
-        <v>11958000000</v>
+        <v>10389000000</v>
       </c>
       <c r="P23" t="n">
-        <v>24804000000</v>
+        <v>23017000000</v>
       </c>
     </row>
     <row r="24">
@@ -1567,50 +1629,50 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>57834000000</v>
+        <v>55146000000</v>
       </c>
       <c r="D24" t="n">
-        <v>16065000000</v>
+        <v>16229000000</v>
       </c>
       <c r="E24" t="n">
-        <v>10097000000</v>
+        <v>9074000000</v>
       </c>
       <c r="F24" t="n">
-        <v>0.48</v>
+        <v>1.02</v>
       </c>
       <c r="G24" t="n">
-        <v>3660000000</v>
+        <v>2884000000</v>
       </c>
       <c r="H24" t="n">
-        <v>29340000000</v>
+        <v>28896000000</v>
       </c>
       <c r="I24" t="n">
-        <v>-3946000000</v>
+        <v>-2565000000</v>
       </c>
       <c r="J24" t="n">
-        <v>-5952000000</v>
+        <v>-4097000000</v>
       </c>
       <c r="K24" t="n">
-        <v>6912000000</v>
+        <v>3765000000</v>
       </c>
       <c r="L24" t="n">
-        <v>1618000000</v>
+        <v>1142000000</v>
       </c>
       <c r="M24" t="n">
-        <v>1656000000</v>
+        <v>1572000000</v>
       </c>
       <c r="N24" t="n">
-        <v>2004000000</v>
+        <v>1312000000</v>
       </c>
       <c r="O24" t="n">
-        <v>13757000000</v>
+        <v>11958000000</v>
       </c>
       <c r="P24" t="n">
-        <v>27053000000</v>
+        <v>24804000000</v>
       </c>
     </row>
     <row r="25">
@@ -1621,30 +1683,50 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>62131000000</v>
+        <v>57834000000</v>
       </c>
       <c r="D25" t="n">
-        <v>17576000000</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>16065000000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10097000000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3660000000</v>
+      </c>
       <c r="H25" t="n">
-        <v>30548000000</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+        <v>29340000000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-3946000000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-5952000000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6912000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1618000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1656000000</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2004000000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>13757000000</v>
+      </c>
       <c r="P25" t="n">
-        <v>30189000000</v>
+        <v>27053000000</v>
       </c>
     </row>
     <row r="26">
@@ -1655,50 +1737,50 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>66038000000</v>
+        <v>62131000000</v>
       </c>
       <c r="D26" t="n">
-        <v>17505000000</v>
+        <v>17576000000</v>
       </c>
       <c r="E26" t="n">
-        <v>13296000000</v>
+        <v>40217000000</v>
       </c>
       <c r="F26" t="n">
-        <v>0.95</v>
+        <v>1.63</v>
       </c>
       <c r="G26" t="n">
-        <v>5460000000</v>
+        <v>13606000000</v>
       </c>
       <c r="H26" t="n">
-        <v>30632000000</v>
+        <v>30548000000</v>
       </c>
       <c r="I26" t="n">
-        <v>-1914000000</v>
+        <v>-5203000000</v>
       </c>
       <c r="J26" t="n">
-        <v>-2167000000</v>
+        <v>-7868000000</v>
       </c>
       <c r="K26" t="n">
-        <v>3995000000</v>
+        <v>11497000000</v>
       </c>
       <c r="L26" t="n">
-        <v>3318000000</v>
+        <v>5519000000</v>
       </c>
       <c r="M26" t="n">
-        <v>1857000000</v>
+        <v>7083000000</v>
       </c>
       <c r="N26" t="n">
-        <v>3603000000</v>
+        <v>6523000000</v>
       </c>
       <c r="O26" t="n">
-        <v>18756000000</v>
+        <v>53823000000</v>
       </c>
       <c r="P26" t="n">
-        <v>34085000000</v>
+        <v>30189000000</v>
       </c>
     </row>
     <row r="27">
@@ -1709,50 +1791,50 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>68513000000</v>
+        <v>66038000000</v>
       </c>
       <c r="D27" t="n">
-        <v>18324000000</v>
+        <v>17505000000</v>
       </c>
       <c r="E27" t="n">
-        <v>12700000000</v>
+        <v>13296000000</v>
       </c>
       <c r="F27" t="n">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
-        <v>4234000000</v>
+        <v>5460000000</v>
       </c>
       <c r="H27" t="n">
-        <v>30855000000</v>
+        <v>30632000000</v>
       </c>
       <c r="I27" t="n">
-        <v>-2320000000</v>
+        <v>-1914000000</v>
       </c>
       <c r="J27" t="n">
-        <v>-3051000000</v>
+        <v>-2167000000</v>
       </c>
       <c r="K27" t="n">
-        <v>6346000000</v>
+        <v>3995000000</v>
       </c>
       <c r="L27" t="n">
-        <v>2259000000</v>
+        <v>3318000000</v>
       </c>
       <c r="M27" t="n">
-        <v>1770000000</v>
+        <v>1857000000</v>
       </c>
       <c r="N27" t="n">
-        <v>2464000000</v>
+        <v>3603000000</v>
       </c>
       <c r="O27" t="n">
-        <v>16934000000</v>
+        <v>18756000000</v>
       </c>
       <c r="P27" t="n">
-        <v>36376000000</v>
+        <v>34085000000</v>
       </c>
     </row>
     <row r="28">
@@ -1763,50 +1845,50 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>74426000000</v>
+        <v>68513000000</v>
       </c>
       <c r="D28" t="n">
-        <v>19532000000</v>
+        <v>18324000000</v>
       </c>
       <c r="E28" t="n">
-        <v>16072000000</v>
+        <v>12700000000</v>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="G28" t="n">
-        <v>5382000000</v>
+        <v>4234000000</v>
       </c>
       <c r="H28" t="n">
-        <v>33302000000</v>
+        <v>30855000000</v>
       </c>
       <c r="I28" t="n">
-        <v>-3032000000</v>
+        <v>-2320000000</v>
       </c>
       <c r="J28" t="n">
-        <v>-5842000000</v>
+        <v>-3051000000</v>
       </c>
       <c r="K28" t="n">
-        <v>11446000000</v>
+        <v>6346000000</v>
       </c>
       <c r="L28" t="n">
-        <v>3292000000</v>
+        <v>2259000000</v>
       </c>
       <c r="M28" t="n">
-        <v>1694000000</v>
+        <v>1770000000</v>
       </c>
       <c r="N28" t="n">
-        <v>3688000000</v>
+        <v>2464000000</v>
       </c>
       <c r="O28" t="n">
-        <v>21454000000</v>
+        <v>16934000000</v>
       </c>
       <c r="P28" t="n">
-        <v>39851000000</v>
+        <v>36376000000</v>
       </c>
     </row>
     <row r="29">
@@ -1817,30 +1899,50 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>82338000000</v>
+        <v>74426000000</v>
       </c>
       <c r="D29" t="n">
-        <v>16253000000</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>19532000000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16072000000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5382000000</v>
+      </c>
       <c r="H29" t="n">
-        <v>36440000000</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+        <v>33302000000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-3032000000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-5842000000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11446000000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3292000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1694000000</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3688000000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>21454000000</v>
+      </c>
       <c r="P29" t="n">
-        <v>44704000000</v>
+        <v>39851000000</v>
       </c>
     </row>
     <row r="30">
@@ -1851,50 +1953,50 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>86833000000</v>
+        <v>82338000000</v>
       </c>
       <c r="D30" t="n">
-        <v>16048000000</v>
+        <v>16253000000</v>
       </c>
       <c r="E30" t="n">
-        <v>18818000000</v>
+        <v>60609000000</v>
       </c>
       <c r="F30" t="n">
-        <v>0.73</v>
+        <v>3.62</v>
       </c>
       <c r="G30" t="n">
-        <v>4511000000</v>
+        <v>20853000000</v>
       </c>
       <c r="H30" t="n">
-        <v>37598000000</v>
+        <v>36440000000</v>
       </c>
       <c r="I30" t="n">
-        <v>-233000000</v>
+        <v>-3527000000</v>
       </c>
       <c r="J30" t="n">
-        <v>-2484000000</v>
+        <v>-11973000000</v>
       </c>
       <c r="K30" t="n">
-        <v>2513000000</v>
+        <v>14724000000</v>
       </c>
       <c r="L30" t="n">
-        <v>2513000000</v>
+        <v>12556000000</v>
       </c>
       <c r="M30" t="n">
-        <v>1847000000</v>
+        <v>7197000000</v>
       </c>
       <c r="N30" t="n">
-        <v>2664000000</v>
+        <v>13656000000</v>
       </c>
       <c r="O30" t="n">
-        <v>23329000000</v>
+        <v>81462000000</v>
       </c>
       <c r="P30" t="n">
-        <v>48054000000</v>
+        <v>44704000000</v>
       </c>
     </row>
     <row r="31">
@@ -1905,50 +2007,50 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>90591000000</v>
+        <v>86833000000</v>
       </c>
       <c r="D31" t="n">
-        <v>15296000000</v>
+        <v>16048000000</v>
       </c>
       <c r="E31" t="n">
-        <v>20394000000</v>
+        <v>18818000000</v>
       </c>
       <c r="F31" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="G31" t="n">
-        <v>4533000000</v>
+        <v>4511000000</v>
       </c>
       <c r="H31" t="n">
-        <v>38409000000</v>
+        <v>37598000000</v>
       </c>
       <c r="I31" t="n">
-        <v>-561000000</v>
+        <v>-233000000</v>
       </c>
       <c r="J31" t="n">
-        <v>-6018000000</v>
+        <v>-2484000000</v>
       </c>
       <c r="K31" t="n">
-        <v>5578000000</v>
+        <v>2513000000</v>
       </c>
       <c r="L31" t="n">
-        <v>2703000000</v>
+        <v>2513000000</v>
       </c>
       <c r="M31" t="n">
-        <v>2134000000</v>
+        <v>1847000000</v>
       </c>
       <c r="N31" t="n">
-        <v>2399000000</v>
+        <v>2664000000</v>
       </c>
       <c r="O31" t="n">
-        <v>24927000000</v>
+        <v>23329000000</v>
       </c>
       <c r="P31" t="n">
-        <v>51130000000</v>
+        <v>48054000000</v>
       </c>
     </row>
     <row r="32">
@@ -1959,50 +2061,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>93941000000</v>
+        <v>90591000000</v>
       </c>
       <c r="D32" t="n">
-        <v>15932000000</v>
+        <v>15296000000</v>
       </c>
       <c r="E32" t="n">
-        <v>19172000000</v>
+        <v>20394000000</v>
       </c>
       <c r="F32" t="n">
-        <v>0.53</v>
+        <v>0.78</v>
       </c>
       <c r="G32" t="n">
-        <v>4178000000</v>
+        <v>4533000000</v>
       </c>
       <c r="H32" t="n">
-        <v>39446000000</v>
+        <v>38409000000</v>
       </c>
       <c r="I32" t="n">
-        <v>1702000000</v>
+        <v>-561000000</v>
       </c>
       <c r="J32" t="n">
-        <v>-10780000000</v>
+        <v>-6018000000</v>
       </c>
       <c r="K32" t="n">
-        <v>8886000000</v>
+        <v>5578000000</v>
       </c>
       <c r="L32" t="n">
-        <v>1853000000</v>
+        <v>2703000000</v>
       </c>
       <c r="M32" t="n">
-        <v>2414000000</v>
+        <v>2134000000</v>
       </c>
       <c r="N32" t="n">
-        <v>1764000000</v>
+        <v>2399000000</v>
       </c>
       <c r="O32" t="n">
-        <v>23350000000</v>
+        <v>24927000000</v>
       </c>
       <c r="P32" t="n">
-        <v>53466000000</v>
+        <v>51130000000</v>
       </c>
     </row>
     <row r="33">
@@ -2013,30 +2115,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>106618000000</v>
+        <v>93941000000</v>
       </c>
       <c r="D33" t="n">
-        <v>16398000000</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+        <v>15932000000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19172000000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4178000000</v>
+      </c>
       <c r="H33" t="n">
-        <v>43009000000</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+        <v>39446000000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1702000000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-10780000000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8886000000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1853000000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2414000000</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1764000000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>23350000000</v>
+      </c>
       <c r="P33" t="n">
-        <v>62634000000</v>
+        <v>53466000000</v>
       </c>
     </row>
     <row r="34">
@@ -2047,50 +2169,50 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>109226000000</v>
+        <v>106618000000</v>
       </c>
       <c r="D34" t="n">
-        <v>11805000000</v>
+        <v>16398000000</v>
       </c>
       <c r="E34" t="n">
-        <v>17605000000</v>
+        <v>79113000000</v>
       </c>
       <c r="F34" t="n">
-        <v>0.41</v>
+        <v>4.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3696000000</v>
+        <v>17660000000</v>
       </c>
       <c r="H34" t="n">
-        <v>44046000000</v>
+        <v>43009000000</v>
       </c>
       <c r="I34" t="n">
-        <v>196000000</v>
+        <v>2589000000</v>
       </c>
       <c r="J34" t="n">
-        <v>-5084000000</v>
+        <v>-15584000000</v>
       </c>
       <c r="K34" t="n">
-        <v>242000000</v>
+        <v>13256000000</v>
       </c>
       <c r="L34" t="n">
-        <v>1390000000</v>
+        <v>14997000000</v>
       </c>
       <c r="M34" t="n">
-        <v>2525000000</v>
+        <v>8769000000</v>
       </c>
       <c r="N34" t="n">
-        <v>1171000000</v>
+        <v>8891000000</v>
       </c>
       <c r="O34" t="n">
-        <v>21301000000</v>
+        <v>96773000000</v>
       </c>
       <c r="P34" t="n">
-        <v>64378000000</v>
+        <v>62634000000</v>
       </c>
     </row>
     <row r="35">
@@ -2101,50 +2223,50 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>112832000000</v>
+        <v>109226000000</v>
       </c>
       <c r="D35" t="n">
-        <v>14635000000</v>
+        <v>11805000000</v>
       </c>
       <c r="E35" t="n">
-        <v>20922000000</v>
+        <v>17605000000</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G35" t="n">
-        <v>4578000000</v>
+        <v>3696000000</v>
       </c>
       <c r="H35" t="n">
-        <v>45569000000</v>
+        <v>44046000000</v>
       </c>
       <c r="I35" t="n">
-        <v>2736000000</v>
+        <v>196000000</v>
       </c>
       <c r="J35" t="n">
-        <v>-8309000000</v>
+        <v>-5084000000</v>
       </c>
       <c r="K35" t="n">
-        <v>3854000000</v>
+        <v>242000000</v>
       </c>
       <c r="L35" t="n">
-        <v>1400000000</v>
+        <v>1390000000</v>
       </c>
       <c r="M35" t="n">
-        <v>2973000000</v>
+        <v>2525000000</v>
       </c>
       <c r="N35" t="n">
-        <v>1605000000</v>
+        <v>1171000000</v>
       </c>
       <c r="O35" t="n">
-        <v>25500000000</v>
+        <v>21301000000</v>
       </c>
       <c r="P35" t="n">
-        <v>66468000000</v>
+        <v>64378000000</v>
       </c>
     </row>
     <row r="36">
@@ -2155,50 +2277,50 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>119852000000</v>
+        <v>112832000000</v>
       </c>
       <c r="D36" t="n">
-        <v>18111000000</v>
+        <v>14635000000</v>
       </c>
       <c r="E36" t="n">
-        <v>20185000000</v>
+        <v>20922000000</v>
       </c>
       <c r="F36" t="n">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="G36" t="n">
-        <v>4997000000</v>
+        <v>4578000000</v>
       </c>
       <c r="H36" t="n">
-        <v>49142000000</v>
+        <v>45569000000</v>
       </c>
       <c r="I36" t="n">
-        <v>2868000000</v>
+        <v>2736000000</v>
       </c>
       <c r="J36" t="n">
-        <v>-11184000000</v>
+        <v>-8309000000</v>
       </c>
       <c r="K36" t="n">
-        <v>10109000000</v>
+        <v>3854000000</v>
       </c>
       <c r="L36" t="n">
-        <v>2167000000</v>
+        <v>1400000000</v>
       </c>
       <c r="M36" t="n">
-        <v>2280000000</v>
+        <v>2973000000</v>
       </c>
       <c r="N36" t="n">
-        <v>2717000000</v>
+        <v>1605000000</v>
       </c>
       <c r="O36" t="n">
-        <v>25182000000</v>
+        <v>25500000000</v>
       </c>
       <c r="P36" t="n">
-        <v>69931000000</v>
+        <v>66468000000</v>
       </c>
     </row>
     <row r="37">
@@ -2209,30 +2331,50 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>122070000000</v>
+        <v>119852000000</v>
       </c>
       <c r="D37" t="n">
-        <v>16139000000</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+        <v>18111000000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20185000000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4997000000</v>
+      </c>
       <c r="H37" t="n">
-        <v>48390000000</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+        <v>49142000000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2868000000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-11184000000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10109000000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2173000000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2280000000</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2717000000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>25182000000</v>
+      </c>
       <c r="P37" t="n">
-        <v>72913000000</v>
+        <v>69931000000</v>
       </c>
     </row>
     <row r="38">
@@ -2243,50 +2385,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>125111000000</v>
+        <v>122070000000</v>
       </c>
       <c r="D38" t="n">
-        <v>16352000000</v>
+        <v>16139000000</v>
       </c>
       <c r="E38" t="n">
-        <v>16182000000</v>
+        <v>80240000000</v>
       </c>
       <c r="F38" t="n">
-        <v>0.12</v>
+        <v>2.04</v>
       </c>
       <c r="G38" t="n">
-        <v>3153000000</v>
+        <v>17450000000</v>
       </c>
       <c r="H38" t="n">
-        <v>49693000000</v>
+        <v>48390000000</v>
       </c>
       <c r="I38" t="n">
-        <v>-332000000</v>
+        <v>3853000000</v>
       </c>
       <c r="J38" t="n">
-        <v>-1651000000</v>
+        <v>-18787000000</v>
       </c>
       <c r="K38" t="n">
-        <v>2156000000</v>
+        <v>14923000000</v>
       </c>
       <c r="L38" t="n">
-        <v>409000000</v>
+        <v>7091000000</v>
       </c>
       <c r="M38" t="n">
-        <v>2754000000</v>
+        <v>10374000000</v>
       </c>
       <c r="N38" t="n">
-        <v>399000000</v>
+        <v>7076000000</v>
       </c>
       <c r="O38" t="n">
-        <v>19335000000</v>
+        <v>97690000000</v>
       </c>
       <c r="P38" t="n">
-        <v>74653000000</v>
+        <v>72913000000</v>
       </c>
     </row>
     <row r="39">
@@ -2297,50 +2439,158 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>125111000000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>16352000000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>16182000000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3153000000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>49693000000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-332000000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1651000000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2156000000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>409000000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2754000000</v>
+      </c>
+      <c r="N39" t="n">
+        <v>399000000</v>
+      </c>
+      <c r="O39" t="n">
+        <v>19335000000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>74653000000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>2025-06-30</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>128567000000</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D40" t="n">
         <v>15587000000</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E40" t="n">
         <v>18618000000</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F40" t="n">
         <v>0.33</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G40" t="n">
         <v>3878000000</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>50495000000</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>-554000000</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J40" t="n">
         <v>-4595000000</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K40" t="n">
         <v>4696000000</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L40" t="n">
         <v>1172000000</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M40" t="n">
         <v>2955000000</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N40" t="n">
         <v>923000000</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O40" t="n">
         <v>22496000000</v>
       </c>
-      <c r="P39" t="n">
+      <c r="P40" t="n">
         <v>77314000000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>133735000000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18289000000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>23041000000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5054000000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>53019000000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>429000000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-8950000000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10934000000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1373000000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3430000000</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1624000000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>28095000000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>79970000000</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2604,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2446,29 +2696,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2009-09-30</t>
+          <t>2008-12-31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.82</v>
+        <v>1.35</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-154558000000</v>
+        <v>246999000000</v>
       </c>
       <c r="H2" t="n">
-        <v>37595000000</v>
+        <v>-283671000000</v>
       </c>
       <c r="I2" t="n">
-        <v>110884000000</v>
+        <v>23930000000</v>
       </c>
       <c r="J2" t="n">
-        <v>3588000000</v>
+        <v>5605000000</v>
       </c>
       <c r="K2" t="n">
-        <v>26622000000</v>
+        <v>67252000000</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -2487,15 +2737,27 @@
         <v>2119673000000</v>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2.26</v>
+      </c>
       <c r="F3" t="n">
         <v>1958828000000</v>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>-153079000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29355000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>122797000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>11728000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100434000000</v>
+      </c>
       <c r="L3" t="n">
         <v>160845000000</v>
       </c>
@@ -2579,16 +2841,12 @@
           <t>2010-09-30</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>2141595000000</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>1.01</v>
       </c>
-      <c r="F6" t="n">
-        <v>1967765000000</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>-18573000000</v>
       </c>
@@ -2604,9 +2862,7 @@
       <c r="K6" t="n">
         <v>23824000000</v>
       </c>
-      <c r="L6" t="n">
-        <v>173830000000</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2623,15 +2879,27 @@
         <v>2117605000000</v>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3.96</v>
+      </c>
       <c r="F7" t="n">
         <v>1941499000000</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>-49217000000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>54002000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-3752000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17370000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>102694000000</v>
+      </c>
       <c r="L7" t="n">
         <v>176106000000</v>
       </c>
@@ -2771,15 +3039,27 @@
         <v>2265792000000</v>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.48</v>
+      </c>
       <c r="F11" t="n">
         <v>2082219000000</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>107706000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-170752000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>95932000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>18976000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>97234000000</v>
+      </c>
       <c r="L11" t="n">
         <v>183573000000</v>
       </c>
@@ -2919,15 +3199,27 @@
         <v>2359141000000</v>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5.2</v>
+      </c>
       <c r="F15" t="n">
         <v>2155072000000</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>87707000000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-119825000000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25079000000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>21284000000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>97031000000</v>
+      </c>
       <c r="L15" t="n">
         <v>204069000000</v>
       </c>
@@ -3064,18 +3356,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2415689000000</v>
+        <v>2414879000000</v>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.34</v>
+      </c>
       <c r="F19" t="n">
         <v>2204511000000</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>28324000000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-150501000000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>107953000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>17886000000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>97367000000</v>
+      </c>
       <c r="L19" t="n">
         <v>211178000000</v>
       </c>
@@ -3212,18 +3516,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2572773000000</v>
+        <v>2572274000000</v>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>5.29</v>
+      </c>
       <c r="F23" t="n">
-        <v>2341046000000</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>2340547000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>118228000000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-165636000000</v>
+      </c>
+      <c r="I23" t="n">
+        <v>36593000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>21745000000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>95112000000</v>
+      </c>
       <c r="L23" t="n">
         <v>231727000000</v>
       </c>
@@ -3356,16 +3672,30 @@
       <c r="C27" t="n">
         <v>2351698000000</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>361683000000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
       <c r="F27" t="n">
         <v>2104125000000</v>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>-187511000000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>106980000000</v>
+      </c>
+      <c r="I27" t="n">
+        <v>73466000000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24442000000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>93543000000</v>
+      </c>
       <c r="L27" t="n">
         <v>247573000000</v>
       </c>
@@ -3501,15 +3831,27 @@
       <c r="D31" t="n">
         <v>391154000000</v>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>6.19</v>
+      </c>
       <c r="F31" t="n">
         <v>2236782000000</v>
       </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>98271000000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-89202000000</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21884000000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>24733000000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>96569000000</v>
+      </c>
       <c r="L31" t="n">
         <v>254190000000</v>
       </c>
@@ -3651,15 +3993,27 @@
       <c r="D35" t="n">
         <v>431304000000</v>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>6.31</v>
+      </c>
       <c r="F35" t="n">
         <v>2277907000000</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>14642000000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>28249000000</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-10827000000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>24441000000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>100705000000</v>
+      </c>
       <c r="L35" t="n">
         <v>255693000000</v>
       </c>
@@ -3798,16 +4152,30 @@
       <c r="C39" t="n">
         <v>2622532000000</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>278793000000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
       <c r="F39" t="n">
         <v>2366017000000</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>34158000000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-199420000000</v>
+      </c>
+      <c r="I39" t="n">
+        <v>15614000000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>32474000000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>108783000000</v>
+      </c>
       <c r="L39" t="n">
         <v>256515000000</v>
       </c>
@@ -3938,18 +4306,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2687379000000</v>
+        <v>2686477000000</v>
       </c>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>10.72</v>
+      </c>
       <c r="F43" t="n">
         <v>2426049000000</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>32987000000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-52059000000</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4092000000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>36431000000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>115720000000</v>
+      </c>
       <c r="L43" t="n">
         <v>261330000000</v>
       </c>
@@ -4083,15 +4463,27 @@
         <v>3384757000000</v>
       </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>8.880000000000001</v>
+      </c>
       <c r="F47" t="n">
         <v>3105403000000</v>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>596645000000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-261912000000</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-79910000000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>29131000000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>119951000000</v>
+      </c>
       <c r="L47" t="n">
         <v>279354000000</v>
       </c>
@@ -4225,15 +4617,27 @@
         <v>3743567000000</v>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>15.36</v>
+      </c>
       <c r="F51" t="n">
         <v>3449440000000</v>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>275993000000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-129344000000</v>
+      </c>
+      <c r="I51" t="n">
+        <v>78084000000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>48334000000</v>
+      </c>
+      <c r="K51" t="n">
+        <v>121649000000</v>
+      </c>
       <c r="L51" t="n">
         <v>294127000000</v>
       </c>
@@ -4367,15 +4771,27 @@
         <v>3665743000000</v>
       </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>12.09</v>
+      </c>
       <c r="F55" t="n">
         <v>3373411000000</v>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="G55" t="n">
+        <v>-126257000000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-137819000000</v>
+      </c>
+      <c r="I55" t="n">
+        <v>107119000000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>37676000000</v>
+      </c>
+      <c r="K55" t="n">
+        <v>128695000000</v>
+      </c>
       <c r="L55" t="n">
         <v>292332000000</v>
       </c>
@@ -4509,15 +4925,27 @@
         <v>3875393000000</v>
       </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>16.23</v>
+      </c>
       <c r="F59" t="n">
         <v>3547515000000</v>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="G59" t="n">
+        <v>-25571000000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>67643000000</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12974000000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>49552000000</v>
+      </c>
+      <c r="K59" t="n">
+        <v>158104000000</v>
+      </c>
       <c r="L59" t="n">
         <v>327878000000</v>
       </c>
@@ -4651,15 +5079,27 @@
         <v>4002814000000</v>
       </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>19.75</v>
+      </c>
       <c r="F63" t="n">
         <v>3658056000000</v>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="G63" t="n">
+        <v>63447000000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-163403000000</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-42012000000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>58471000000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>177556000000</v>
+      </c>
       <c r="L63" t="n">
         <v>344758000000</v>
       </c>
@@ -4738,6 +5178,44 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>356924000000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4560205000000</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4199993000000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>393090000000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-312447000000</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-267506000000</v>
+      </c>
+      <c r="J66" t="n">
+        <v>14393000000</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>360212000000</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +5229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4874,17 +5352,31 @@
       <c r="D2" t="n">
         <v>1196908000</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>3122522000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-6.93</v>
+      </c>
+      <c r="G2" t="n">
+        <v>923503000</v>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>-888663000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1640132000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-716629000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4046025000</v>
+      </c>
       <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4895,35 +5387,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2016-03-31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>3246301000</v>
-      </c>
-      <c r="E3" t="n">
-        <v>995241000</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>274776000</v>
+        <v>252468000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>-293188000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>512816000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-238040000</v>
-      </c>
+        <v>-282267000</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>1270017000</v>
+        <v>1147048000</v>
       </c>
       <c r="P3" t="inlineStr"/>
     </row>
@@ -4935,37 +5419,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2016-09-30</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>3084257000</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1661701000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.14</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>636735000</v>
+        <v>274776000</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>21878000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>551113000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>85622000</v>
-      </c>
+        <v>-293188000</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>2298436000</v>
+        <v>1270017000</v>
       </c>
       <c r="P4" t="inlineStr"/>
     </row>
@@ -4977,31 +5451,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22664076000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3393216000</v>
-      </c>
+          <t>2016-09-30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>16750167000</v>
-      </c>
+      <c r="G5" t="n">
+        <v>636735000</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>21878000</v>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>4752911000</v>
-      </c>
+      <c r="O5" t="n">
+        <v>2298436000</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5011,39 +5483,51 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2017-03-31</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>2016-12-31</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22664076000</v>
+      </c>
       <c r="D6" t="n">
-        <v>4006593000</v>
+        <v>3393000000</v>
       </c>
       <c r="E6" t="n">
-        <v>2028324000</v>
+        <v>5400875000</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.04</v>
+        <v>-4.68</v>
       </c>
       <c r="G6" t="n">
-        <v>667946000</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>435278000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16750167000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3743976000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1081085000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-123829000</v>
+      </c>
       <c r="L6" t="n">
-        <v>-330277000</v>
+        <v>-121337000</v>
       </c>
       <c r="M6" t="n">
-        <v>925495000</v>
+        <v>2266597000</v>
       </c>
       <c r="N6" t="n">
-        <v>-257549000</v>
+        <v>-667340000</v>
       </c>
       <c r="O6" t="n">
-        <v>2696270000</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>2284631000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4752911000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5053,51 +5537,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2017-06-30</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>26043705000</v>
-      </c>
+          <t>2017-03-31</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>3035924000</v>
+        <v>4006593000</v>
       </c>
       <c r="E7" t="n">
-        <v>2122942000</v>
+        <v>2028324000</v>
       </c>
       <c r="F7" t="n">
         <v>-2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>666615000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>19459902000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2027516000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-2039631000</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-269983000</v>
-      </c>
+        <v>667946000</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>-336397000</v>
+        <v>-330277000</v>
       </c>
       <c r="M7" t="n">
-        <v>907531000</v>
+        <v>925495000</v>
       </c>
       <c r="N7" t="n">
-        <v>-240916000</v>
+        <v>-257549000</v>
       </c>
       <c r="O7" t="n">
-        <v>2789557000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5105752000</v>
-      </c>
+        <v>2696270000</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5107,51 +5579,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>28107074000</v>
-      </c>
+          <t>2017-06-30</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>3530030000</v>
+        <v>3035924000</v>
       </c>
       <c r="E8" t="n">
-        <v>2535535000</v>
+        <v>2122942000</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.7</v>
+        <v>-2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>449140000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>21929057000</v>
-      </c>
+        <v>666615000</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>4129022000</v>
+        <v>2027516000</v>
       </c>
       <c r="J8" t="n">
-        <v>-3284358000</v>
+        <v>-2039631000</v>
       </c>
       <c r="K8" t="n">
-        <v>-570545000</v>
+        <v>-269983000</v>
       </c>
       <c r="L8" t="n">
-        <v>-619376000</v>
+        <v>-336397000</v>
       </c>
       <c r="M8" t="n">
-        <v>984620000</v>
+        <v>907531000</v>
       </c>
       <c r="N8" t="n">
-        <v>-535480000</v>
+        <v>-240916000</v>
       </c>
       <c r="O8" t="n">
-        <v>2984675000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4711480000</v>
-      </c>
+        <v>2789557000</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5161,31 +5627,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>28655372000</v>
-      </c>
+          <t>2017-09-30</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>3368000000</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>23022980000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>4237242000</v>
-      </c>
+        <v>3530030000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2535535000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>449140000</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>4129022000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-3284358000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-570545000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-619376000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>984620000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-535480000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2984675000</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5195,50 +5675,50 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27271429000</v>
+        <v>28655372000</v>
       </c>
       <c r="D10" t="n">
-        <v>2665673000</v>
+        <v>3368000000</v>
       </c>
       <c r="E10" t="n">
-        <v>2952225000</v>
+        <v>9536000000</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.19</v>
+        <v>-11.83</v>
       </c>
       <c r="G10" t="n">
-        <v>456526000</v>
+        <v>438786000</v>
       </c>
       <c r="H10" t="n">
-        <v>21551021000</v>
+        <v>23022980000</v>
       </c>
       <c r="I10" t="n">
-        <v>371660000</v>
+        <v>4415000000</v>
       </c>
       <c r="J10" t="n">
-        <v>-728637000</v>
+        <v>-4196000000</v>
       </c>
       <c r="K10" t="n">
-        <v>-398376000</v>
+        <v>-61000000</v>
       </c>
       <c r="L10" t="n">
-        <v>-709551000</v>
+        <v>-675350000</v>
       </c>
       <c r="M10" t="n">
-        <v>1053500000</v>
+        <v>3855000000</v>
       </c>
       <c r="N10" t="n">
-        <v>-596974000</v>
+        <v>-1632000000</v>
       </c>
       <c r="O10" t="n">
-        <v>3408751000</v>
+        <v>3288249000</v>
       </c>
       <c r="P10" t="n">
-        <v>4450695000</v>
+        <v>4237242000</v>
       </c>
     </row>
     <row r="11">
@@ -5249,50 +5729,50 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>2018-03-31</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27910000000</v>
+        <v>27271429000</v>
       </c>
       <c r="D11" t="n">
-        <v>2236424000</v>
+        <v>2665673000</v>
       </c>
       <c r="E11" t="n">
-        <v>3383301000</v>
+        <v>2952225000</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.22</v>
+        <v>-4.19</v>
       </c>
       <c r="G11" t="n">
-        <v>618930000</v>
+        <v>456000000</v>
       </c>
       <c r="H11" t="n">
-        <v>22642887000</v>
+        <v>21551021000</v>
       </c>
       <c r="I11" t="n">
-        <v>770282000</v>
+        <v>371660000</v>
       </c>
       <c r="J11" t="n">
-        <v>-1411454000</v>
+        <v>-728637000</v>
       </c>
       <c r="K11" t="n">
-        <v>-528040000</v>
+        <v>-398376000</v>
       </c>
       <c r="L11" t="n">
-        <v>-717539000</v>
+        <v>-709000000</v>
       </c>
       <c r="M11" t="n">
-        <v>1240322000</v>
+        <v>1053500000</v>
       </c>
       <c r="N11" t="n">
-        <v>-621392000</v>
+        <v>-596974000</v>
       </c>
       <c r="O11" t="n">
-        <v>4002231000</v>
+        <v>3409000000</v>
       </c>
       <c r="P11" t="n">
-        <v>3906421000</v>
+        <v>4450695000</v>
       </c>
     </row>
     <row r="12">
@@ -5303,50 +5783,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>2018-06-30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29262713000</v>
+        <v>27910000000</v>
       </c>
       <c r="D12" t="n">
-        <v>2967000000</v>
+        <v>2236424000</v>
       </c>
       <c r="E12" t="n">
-        <v>5300000000</v>
+        <v>3383301000</v>
       </c>
       <c r="F12" t="n">
-        <v>1.75</v>
+        <v>-4.22</v>
       </c>
       <c r="G12" t="n">
-        <v>1524000000</v>
+        <v>619000000</v>
       </c>
       <c r="H12" t="n">
-        <v>23409144000</v>
+        <v>22642887000</v>
       </c>
       <c r="I12" t="n">
-        <v>686000000</v>
+        <v>770282000</v>
       </c>
       <c r="J12" t="n">
-        <v>-1972000000</v>
+        <v>-1411454000</v>
       </c>
       <c r="K12" t="n">
-        <v>863000000</v>
+        <v>-528040000</v>
       </c>
       <c r="L12" t="n">
-        <v>311000000</v>
+        <v>-718000000</v>
       </c>
       <c r="M12" t="n">
-        <v>1108000000</v>
+        <v>1240322000</v>
       </c>
       <c r="N12" t="n">
-        <v>416000000</v>
+        <v>-621392000</v>
       </c>
       <c r="O12" t="n">
-        <v>6824000000</v>
+        <v>4002000000</v>
       </c>
       <c r="P12" t="n">
-        <v>4508838000</v>
+        <v>3906421000</v>
       </c>
     </row>
     <row r="13">
@@ -5357,30 +5837,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>2018-09-30</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>29740000000</v>
+        <v>29262713000</v>
       </c>
       <c r="D13" t="n">
-        <v>3686000000</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+        <v>2967000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5300000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1524000000</v>
+      </c>
       <c r="H13" t="n">
-        <v>23427000000</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+        <v>23409144000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>686000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1972000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>863000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>311000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1108000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>416000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6824000000</v>
+      </c>
       <c r="P13" t="n">
-        <v>4923000000</v>
+        <v>4508838000</v>
       </c>
     </row>
     <row r="14">
@@ -5391,50 +5891,50 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2018-12-31</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28912524000</v>
+        <v>29740000000</v>
       </c>
       <c r="D14" t="n">
-        <v>2198000000</v>
+        <v>3686000000</v>
       </c>
       <c r="E14" t="n">
-        <v>3975000000</v>
+        <v>17419000000</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.1</v>
+        <v>-1.14</v>
       </c>
       <c r="G14" t="n">
-        <v>566000000</v>
+        <v>1443000000</v>
       </c>
       <c r="H14" t="n">
-        <v>22874618000</v>
+        <v>23427000000</v>
       </c>
       <c r="I14" t="n">
-        <v>-653000000</v>
+        <v>574000000</v>
       </c>
       <c r="J14" t="n">
-        <v>-306000000</v>
+        <v>-2337000000</v>
       </c>
       <c r="K14" t="n">
-        <v>-640000000</v>
+        <v>2098000000</v>
       </c>
       <c r="L14" t="n">
-        <v>-702000000</v>
+        <v>140000000</v>
       </c>
       <c r="M14" t="n">
-        <v>1088000000</v>
+        <v>4430000000</v>
       </c>
       <c r="N14" t="n">
-        <v>-522000000</v>
+        <v>-388000000</v>
       </c>
       <c r="O14" t="n">
-        <v>4541000000</v>
+        <v>7226000000</v>
       </c>
       <c r="P14" t="n">
-        <v>4605596000</v>
+        <v>4923000000</v>
       </c>
     </row>
     <row r="15">
@@ -5445,50 +5945,50 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>2019-03-31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>31872597000</v>
+        <v>28912524000</v>
       </c>
       <c r="D15" t="n">
-        <v>4955000000</v>
+        <v>2198000000</v>
       </c>
       <c r="E15" t="n">
-        <v>5429000000</v>
+        <v>3975000000</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.31</v>
+        <v>-4.1</v>
       </c>
       <c r="G15" t="n">
-        <v>921000000</v>
+        <v>566000000</v>
       </c>
       <c r="H15" t="n">
-        <v>24722136000</v>
+        <v>22874618000</v>
       </c>
       <c r="I15" t="n">
-        <v>1490000000</v>
+        <v>-653000000</v>
       </c>
       <c r="J15" t="n">
-        <v>-547000000</v>
+        <v>-306000000</v>
       </c>
       <c r="K15" t="n">
-        <v>224000000</v>
+        <v>-640000000</v>
       </c>
       <c r="L15" t="n">
-        <v>-408000000</v>
+        <v>-702000000</v>
       </c>
       <c r="M15" t="n">
         <v>1088000000</v>
       </c>
       <c r="N15" t="n">
-        <v>-167000000</v>
+        <v>-522000000</v>
       </c>
       <c r="O15" t="n">
-        <v>6350000000</v>
+        <v>4541000000</v>
       </c>
       <c r="P15" t="n">
-        <v>5715393000</v>
+        <v>4605596000</v>
       </c>
     </row>
     <row r="16">
@@ -5499,50 +5999,50 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>2019-06-30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>32795000000</v>
+        <v>31872597000</v>
       </c>
       <c r="D16" t="n">
-        <v>5338000000</v>
+        <v>4955000000</v>
       </c>
       <c r="E16" t="n">
-        <v>5112000000</v>
+        <v>5429000000</v>
       </c>
       <c r="F16" t="n">
-        <v>0.16</v>
+        <v>-2.31</v>
       </c>
       <c r="G16" t="n">
-        <v>1191000000</v>
+        <v>921000000</v>
       </c>
       <c r="H16" t="n">
-        <v>25313000000</v>
+        <v>24722136000</v>
       </c>
       <c r="I16" t="n">
-        <v>1608000000</v>
+        <v>1490000000</v>
       </c>
       <c r="J16" t="n">
-        <v>-1033000000</v>
+        <v>-547000000</v>
       </c>
       <c r="K16" t="n">
-        <v>980000000</v>
+        <v>224000000</v>
       </c>
       <c r="L16" t="n">
-        <v>143000000</v>
+        <v>-408000000</v>
       </c>
       <c r="M16" t="n">
-        <v>930000000</v>
+        <v>1088000000</v>
       </c>
       <c r="N16" t="n">
-        <v>261000000</v>
+        <v>-167000000</v>
       </c>
       <c r="O16" t="n">
-        <v>6303000000</v>
+        <v>6350000000</v>
       </c>
       <c r="P16" t="n">
-        <v>6040000000</v>
+        <v>5715393000</v>
       </c>
     </row>
     <row r="17">
@@ -5553,30 +6053,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-09-30</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34309000000</v>
+        <v>32795000000</v>
       </c>
       <c r="D17" t="n">
-        <v>6268000000</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>5338000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5112000000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1191000000</v>
+      </c>
       <c r="H17" t="n">
-        <v>26199000000</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+        <v>25313000000</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1608000000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1033000000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>980000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>143000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>930000000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>261000000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6303000000</v>
+      </c>
       <c r="P17" t="n">
-        <v>6618000000</v>
+        <v>6040000000</v>
       </c>
     </row>
     <row r="18">
@@ -5587,50 +6107,50 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>37250000000</v>
+        <v>34309000000</v>
       </c>
       <c r="D18" t="n">
-        <v>8080000000</v>
+        <v>6268000000</v>
       </c>
       <c r="E18" t="n">
-        <v>4751000000</v>
+        <v>20509000000</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02</v>
+        <v>-0.98</v>
       </c>
       <c r="G18" t="n">
-        <v>1234000000</v>
+        <v>1391000000</v>
       </c>
       <c r="H18" t="n">
-        <v>26518000000</v>
+        <v>26199000000</v>
       </c>
       <c r="I18" t="n">
-        <v>2708000000</v>
+        <v>1529000000</v>
       </c>
       <c r="J18" t="n">
-        <v>-480000000</v>
+        <v>-1436000000</v>
       </c>
       <c r="K18" t="n">
-        <v>-440000000</v>
+        <v>2405000000</v>
       </c>
       <c r="L18" t="n">
-        <v>16000000</v>
+        <v>105000000</v>
       </c>
       <c r="M18" t="n">
-        <v>951000000</v>
+        <v>4138000000</v>
       </c>
       <c r="N18" t="n">
-        <v>283000000</v>
+        <v>-69000000</v>
       </c>
       <c r="O18" t="n">
-        <v>5985000000</v>
+        <v>7384000000</v>
       </c>
       <c r="P18" t="n">
-        <v>9173000000</v>
+        <v>6618000000</v>
       </c>
     </row>
     <row r="19">
@@ -5641,50 +6161,50 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>38135000000</v>
+        <v>37250000000</v>
       </c>
       <c r="D19" t="n">
-        <v>8615000000</v>
+        <v>8080000000</v>
       </c>
       <c r="E19" t="n">
-        <v>4769000000</v>
+        <v>4751000000</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G19" t="n">
-        <v>1267000000</v>
+        <v>1234000000</v>
       </c>
       <c r="H19" t="n">
-        <v>26754000000</v>
+        <v>26518000000</v>
       </c>
       <c r="I19" t="n">
-        <v>2831000000</v>
+        <v>2708000000</v>
       </c>
       <c r="J19" t="n">
-        <v>-1046000000</v>
+        <v>-480000000</v>
       </c>
       <c r="K19" t="n">
-        <v>524000000</v>
+        <v>-440000000</v>
       </c>
       <c r="L19" t="n">
-        <v>104000000</v>
+        <v>16000000</v>
       </c>
       <c r="M19" t="n">
-        <v>940000000</v>
+        <v>951000000</v>
       </c>
       <c r="N19" t="n">
-        <v>327000000</v>
+        <v>283000000</v>
       </c>
       <c r="O19" t="n">
-        <v>6036000000</v>
+        <v>5985000000</v>
       </c>
       <c r="P19" t="n">
-        <v>9855000000</v>
+        <v>9173000000</v>
       </c>
     </row>
     <row r="20">
@@ -5695,50 +6215,50 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>45691000000</v>
+        <v>38135000000</v>
       </c>
       <c r="D20" t="n">
-        <v>14531000000</v>
+        <v>8615000000</v>
       </c>
       <c r="E20" t="n">
-        <v>6708000000</v>
+        <v>4769000000</v>
       </c>
       <c r="F20" t="n">
-        <v>0.27</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2063000000</v>
+        <v>1267000000</v>
       </c>
       <c r="H20" t="n">
-        <v>28143000000</v>
+        <v>26754000000</v>
       </c>
       <c r="I20" t="n">
-        <v>7281000000</v>
+        <v>2831000000</v>
       </c>
       <c r="J20" t="n">
-        <v>-2085000000</v>
+        <v>-1046000000</v>
       </c>
       <c r="K20" t="n">
-        <v>2924000000</v>
+        <v>524000000</v>
       </c>
       <c r="L20" t="n">
-        <v>331000000</v>
+        <v>104000000</v>
       </c>
       <c r="M20" t="n">
-        <v>1254000000</v>
+        <v>940000000</v>
       </c>
       <c r="N20" t="n">
-        <v>809000000</v>
+        <v>327000000</v>
       </c>
       <c r="O20" t="n">
-        <v>8771000000</v>
+        <v>6036000000</v>
       </c>
       <c r="P20" t="n">
-        <v>16031000000</v>
+        <v>9855000000</v>
       </c>
     </row>
     <row r="21">
@@ -5749,30 +6269,50 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>52148000000</v>
+        <v>45691000000</v>
       </c>
       <c r="D21" t="n">
-        <v>19384000000</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+        <v>14531000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6708000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2063000000</v>
+      </c>
       <c r="H21" t="n">
-        <v>28418000000</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+        <v>28143000000</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7281000000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-2085000000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2924000000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>331000000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1254000000</v>
+      </c>
+      <c r="N21" t="n">
+        <v>809000000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8771000000</v>
+      </c>
       <c r="P21" t="n">
-        <v>22225000000</v>
+        <v>16031000000</v>
       </c>
     </row>
     <row r="22">
@@ -5783,50 +6323,50 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>52972000000</v>
+        <v>52148000000</v>
       </c>
       <c r="D22" t="n">
-        <v>17141000000</v>
+        <v>19384000000</v>
       </c>
       <c r="E22" t="n">
-        <v>8174000000</v>
+        <v>24906000000</v>
       </c>
       <c r="F22" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="G22" t="n">
-        <v>2215000000</v>
+        <v>2066000000</v>
       </c>
       <c r="H22" t="n">
-        <v>28507000000</v>
+        <v>28418000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-1016000000</v>
+        <v>9973000000</v>
       </c>
       <c r="J22" t="n">
-        <v>-2582000000</v>
+        <v>-3132000000</v>
       </c>
       <c r="K22" t="n">
-        <v>1641000000</v>
+        <v>5943000000</v>
       </c>
       <c r="L22" t="n">
-        <v>438000000</v>
+        <v>270000000</v>
       </c>
       <c r="M22" t="n">
-        <v>1621000000</v>
+        <v>4636000000</v>
       </c>
       <c r="N22" t="n">
-        <v>594000000</v>
+        <v>1994000000</v>
       </c>
       <c r="O22" t="n">
-        <v>10389000000</v>
+        <v>10744000000</v>
       </c>
       <c r="P22" t="n">
-        <v>23017000000</v>
+        <v>22225000000</v>
       </c>
     </row>
     <row r="23">
@@ -5837,50 +6377,50 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55146000000</v>
+        <v>52972000000</v>
       </c>
       <c r="D23" t="n">
-        <v>16229000000</v>
+        <v>17141000000</v>
       </c>
       <c r="E23" t="n">
-        <v>9074000000</v>
+        <v>8174000000</v>
       </c>
       <c r="F23" t="n">
-        <v>1.02</v>
+        <v>0.39</v>
       </c>
       <c r="G23" t="n">
-        <v>2884000000</v>
+        <v>2215000000</v>
       </c>
       <c r="H23" t="n">
-        <v>28896000000</v>
+        <v>28507000000</v>
       </c>
       <c r="I23" t="n">
-        <v>-2565000000</v>
+        <v>-1016000000</v>
       </c>
       <c r="J23" t="n">
-        <v>-4097000000</v>
+        <v>-2582000000</v>
       </c>
       <c r="K23" t="n">
-        <v>3765000000</v>
+        <v>1641000000</v>
       </c>
       <c r="L23" t="n">
-        <v>1142000000</v>
+        <v>438000000</v>
       </c>
       <c r="M23" t="n">
-        <v>1572000000</v>
+        <v>1621000000</v>
       </c>
       <c r="N23" t="n">
-        <v>1312000000</v>
+        <v>594000000</v>
       </c>
       <c r="O23" t="n">
-        <v>11958000000</v>
+        <v>10389000000</v>
       </c>
       <c r="P23" t="n">
-        <v>24804000000</v>
+        <v>23017000000</v>
       </c>
     </row>
     <row r="24">
@@ -5891,50 +6431,50 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>57834000000</v>
+        <v>55146000000</v>
       </c>
       <c r="D24" t="n">
-        <v>16065000000</v>
+        <v>16229000000</v>
       </c>
       <c r="E24" t="n">
-        <v>10097000000</v>
+        <v>9074000000</v>
       </c>
       <c r="F24" t="n">
-        <v>0.48</v>
+        <v>1.02</v>
       </c>
       <c r="G24" t="n">
-        <v>3660000000</v>
+        <v>2884000000</v>
       </c>
       <c r="H24" t="n">
-        <v>29340000000</v>
+        <v>28896000000</v>
       </c>
       <c r="I24" t="n">
-        <v>-3946000000</v>
+        <v>-2565000000</v>
       </c>
       <c r="J24" t="n">
-        <v>-5952000000</v>
+        <v>-4097000000</v>
       </c>
       <c r="K24" t="n">
-        <v>6912000000</v>
+        <v>3765000000</v>
       </c>
       <c r="L24" t="n">
-        <v>1618000000</v>
+        <v>1142000000</v>
       </c>
       <c r="M24" t="n">
-        <v>1656000000</v>
+        <v>1572000000</v>
       </c>
       <c r="N24" t="n">
-        <v>2004000000</v>
+        <v>1312000000</v>
       </c>
       <c r="O24" t="n">
-        <v>13757000000</v>
+        <v>11958000000</v>
       </c>
       <c r="P24" t="n">
-        <v>27053000000</v>
+        <v>24804000000</v>
       </c>
     </row>
     <row r="25">
@@ -5945,30 +6485,50 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>62131000000</v>
+        <v>57834000000</v>
       </c>
       <c r="D25" t="n">
-        <v>17576000000</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>16065000000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10097000000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3660000000</v>
+      </c>
       <c r="H25" t="n">
-        <v>30548000000</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+        <v>29340000000</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-3946000000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-5952000000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6912000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1618000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1656000000</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2004000000</v>
+      </c>
+      <c r="O25" t="n">
+        <v>13757000000</v>
+      </c>
       <c r="P25" t="n">
-        <v>30189000000</v>
+        <v>27053000000</v>
       </c>
     </row>
     <row r="26">
@@ -5979,50 +6539,50 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>66038000000</v>
+        <v>62131000000</v>
       </c>
       <c r="D26" t="n">
-        <v>17505000000</v>
+        <v>17576000000</v>
       </c>
       <c r="E26" t="n">
-        <v>13296000000</v>
+        <v>40217000000</v>
       </c>
       <c r="F26" t="n">
-        <v>0.95</v>
+        <v>1.63</v>
       </c>
       <c r="G26" t="n">
-        <v>5460000000</v>
+        <v>13606000000</v>
       </c>
       <c r="H26" t="n">
-        <v>30632000000</v>
+        <v>30548000000</v>
       </c>
       <c r="I26" t="n">
-        <v>-1914000000</v>
+        <v>-5203000000</v>
       </c>
       <c r="J26" t="n">
-        <v>-2167000000</v>
+        <v>-7868000000</v>
       </c>
       <c r="K26" t="n">
-        <v>3995000000</v>
+        <v>11497000000</v>
       </c>
       <c r="L26" t="n">
-        <v>3318000000</v>
+        <v>5519000000</v>
       </c>
       <c r="M26" t="n">
-        <v>1857000000</v>
+        <v>7083000000</v>
       </c>
       <c r="N26" t="n">
-        <v>3603000000</v>
+        <v>6523000000</v>
       </c>
       <c r="O26" t="n">
-        <v>18756000000</v>
+        <v>53823000000</v>
       </c>
       <c r="P26" t="n">
-        <v>34085000000</v>
+        <v>30189000000</v>
       </c>
     </row>
     <row r="27">
@@ -6033,50 +6593,50 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>68513000000</v>
+        <v>66038000000</v>
       </c>
       <c r="D27" t="n">
-        <v>18324000000</v>
+        <v>17505000000</v>
       </c>
       <c r="E27" t="n">
-        <v>12700000000</v>
+        <v>13296000000</v>
       </c>
       <c r="F27" t="n">
-        <v>0.65</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
-        <v>4234000000</v>
+        <v>5460000000</v>
       </c>
       <c r="H27" t="n">
-        <v>30855000000</v>
+        <v>30632000000</v>
       </c>
       <c r="I27" t="n">
-        <v>-2320000000</v>
+        <v>-1914000000</v>
       </c>
       <c r="J27" t="n">
-        <v>-3051000000</v>
+        <v>-2167000000</v>
       </c>
       <c r="K27" t="n">
-        <v>6346000000</v>
+        <v>3995000000</v>
       </c>
       <c r="L27" t="n">
-        <v>2259000000</v>
+        <v>3318000000</v>
       </c>
       <c r="M27" t="n">
-        <v>1770000000</v>
+        <v>1857000000</v>
       </c>
       <c r="N27" t="n">
-        <v>2464000000</v>
+        <v>3603000000</v>
       </c>
       <c r="O27" t="n">
-        <v>16934000000</v>
+        <v>18756000000</v>
       </c>
       <c r="P27" t="n">
-        <v>36376000000</v>
+        <v>34085000000</v>
       </c>
     </row>
     <row r="28">
@@ -6087,50 +6647,50 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>74426000000</v>
+        <v>68513000000</v>
       </c>
       <c r="D28" t="n">
-        <v>19532000000</v>
+        <v>18324000000</v>
       </c>
       <c r="E28" t="n">
-        <v>16072000000</v>
+        <v>12700000000</v>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="G28" t="n">
-        <v>5382000000</v>
+        <v>4234000000</v>
       </c>
       <c r="H28" t="n">
-        <v>33302000000</v>
+        <v>30855000000</v>
       </c>
       <c r="I28" t="n">
-        <v>-3032000000</v>
+        <v>-2320000000</v>
       </c>
       <c r="J28" t="n">
-        <v>-5842000000</v>
+        <v>-3051000000</v>
       </c>
       <c r="K28" t="n">
-        <v>11446000000</v>
+        <v>6346000000</v>
       </c>
       <c r="L28" t="n">
-        <v>3292000000</v>
+        <v>2259000000</v>
       </c>
       <c r="M28" t="n">
-        <v>1694000000</v>
+        <v>1770000000</v>
       </c>
       <c r="N28" t="n">
-        <v>3688000000</v>
+        <v>2464000000</v>
       </c>
       <c r="O28" t="n">
-        <v>21454000000</v>
+        <v>16934000000</v>
       </c>
       <c r="P28" t="n">
-        <v>39851000000</v>
+        <v>36376000000</v>
       </c>
     </row>
     <row r="29">
@@ -6141,30 +6701,50 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>82338000000</v>
+        <v>74426000000</v>
       </c>
       <c r="D29" t="n">
-        <v>16253000000</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+        <v>19532000000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16072000000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5382000000</v>
+      </c>
       <c r="H29" t="n">
-        <v>36440000000</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+        <v>33302000000</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-3032000000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-5842000000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11446000000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3292000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1694000000</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3688000000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>21454000000</v>
+      </c>
       <c r="P29" t="n">
-        <v>44704000000</v>
+        <v>39851000000</v>
       </c>
     </row>
     <row r="30">
@@ -6175,50 +6755,50 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>86833000000</v>
+        <v>82338000000</v>
       </c>
       <c r="D30" t="n">
-        <v>16048000000</v>
+        <v>16253000000</v>
       </c>
       <c r="E30" t="n">
-        <v>18818000000</v>
+        <v>60609000000</v>
       </c>
       <c r="F30" t="n">
-        <v>0.73</v>
+        <v>3.62</v>
       </c>
       <c r="G30" t="n">
-        <v>4511000000</v>
+        <v>20853000000</v>
       </c>
       <c r="H30" t="n">
-        <v>37598000000</v>
+        <v>36440000000</v>
       </c>
       <c r="I30" t="n">
-        <v>-233000000</v>
+        <v>-3527000000</v>
       </c>
       <c r="J30" t="n">
-        <v>-2484000000</v>
+        <v>-11973000000</v>
       </c>
       <c r="K30" t="n">
-        <v>2513000000</v>
+        <v>14724000000</v>
       </c>
       <c r="L30" t="n">
-        <v>2513000000</v>
+        <v>12556000000</v>
       </c>
       <c r="M30" t="n">
-        <v>1847000000</v>
+        <v>7197000000</v>
       </c>
       <c r="N30" t="n">
-        <v>2664000000</v>
+        <v>13656000000</v>
       </c>
       <c r="O30" t="n">
-        <v>23329000000</v>
+        <v>81462000000</v>
       </c>
       <c r="P30" t="n">
-        <v>48054000000</v>
+        <v>44704000000</v>
       </c>
     </row>
     <row r="31">
@@ -6229,50 +6809,50 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>90591000000</v>
+        <v>86833000000</v>
       </c>
       <c r="D31" t="n">
-        <v>15296000000</v>
+        <v>16048000000</v>
       </c>
       <c r="E31" t="n">
-        <v>20394000000</v>
+        <v>18818000000</v>
       </c>
       <c r="F31" t="n">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="G31" t="n">
-        <v>4533000000</v>
+        <v>4511000000</v>
       </c>
       <c r="H31" t="n">
-        <v>38409000000</v>
+        <v>37598000000</v>
       </c>
       <c r="I31" t="n">
-        <v>-561000000</v>
+        <v>-233000000</v>
       </c>
       <c r="J31" t="n">
-        <v>-6018000000</v>
+        <v>-2484000000</v>
       </c>
       <c r="K31" t="n">
-        <v>5578000000</v>
+        <v>2513000000</v>
       </c>
       <c r="L31" t="n">
-        <v>2703000000</v>
+        <v>2513000000</v>
       </c>
       <c r="M31" t="n">
-        <v>2134000000</v>
+        <v>1847000000</v>
       </c>
       <c r="N31" t="n">
-        <v>2399000000</v>
+        <v>2664000000</v>
       </c>
       <c r="O31" t="n">
-        <v>24927000000</v>
+        <v>23329000000</v>
       </c>
       <c r="P31" t="n">
-        <v>51130000000</v>
+        <v>48054000000</v>
       </c>
     </row>
     <row r="32">
@@ -6283,50 +6863,50 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>93941000000</v>
+        <v>90591000000</v>
       </c>
       <c r="D32" t="n">
-        <v>15932000000</v>
+        <v>15296000000</v>
       </c>
       <c r="E32" t="n">
-        <v>19172000000</v>
+        <v>20394000000</v>
       </c>
       <c r="F32" t="n">
-        <v>0.53</v>
+        <v>0.78</v>
       </c>
       <c r="G32" t="n">
-        <v>4178000000</v>
+        <v>4533000000</v>
       </c>
       <c r="H32" t="n">
-        <v>39446000000</v>
+        <v>38409000000</v>
       </c>
       <c r="I32" t="n">
-        <v>1702000000</v>
+        <v>-561000000</v>
       </c>
       <c r="J32" t="n">
-        <v>-10780000000</v>
+        <v>-6018000000</v>
       </c>
       <c r="K32" t="n">
-        <v>8886000000</v>
+        <v>5578000000</v>
       </c>
       <c r="L32" t="n">
-        <v>1853000000</v>
+        <v>2703000000</v>
       </c>
       <c r="M32" t="n">
-        <v>2414000000</v>
+        <v>2134000000</v>
       </c>
       <c r="N32" t="n">
-        <v>1764000000</v>
+        <v>2399000000</v>
       </c>
       <c r="O32" t="n">
-        <v>23350000000</v>
+        <v>24927000000</v>
       </c>
       <c r="P32" t="n">
-        <v>53466000000</v>
+        <v>51130000000</v>
       </c>
     </row>
     <row r="33">
@@ -6337,30 +6917,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>106618000000</v>
+        <v>93941000000</v>
       </c>
       <c r="D33" t="n">
-        <v>16398000000</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+        <v>15932000000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>19172000000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4178000000</v>
+      </c>
       <c r="H33" t="n">
-        <v>43009000000</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+        <v>39446000000</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1702000000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-10780000000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>8886000000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1853000000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2414000000</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1764000000</v>
+      </c>
+      <c r="O33" t="n">
+        <v>23350000000</v>
+      </c>
       <c r="P33" t="n">
-        <v>62634000000</v>
+        <v>53466000000</v>
       </c>
     </row>
     <row r="34">
@@ -6371,50 +6971,50 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>109226000000</v>
+        <v>106618000000</v>
       </c>
       <c r="D34" t="n">
-        <v>11805000000</v>
+        <v>16398000000</v>
       </c>
       <c r="E34" t="n">
-        <v>17605000000</v>
+        <v>79113000000</v>
       </c>
       <c r="F34" t="n">
-        <v>0.41</v>
+        <v>4.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3696000000</v>
+        <v>17660000000</v>
       </c>
       <c r="H34" t="n">
-        <v>44046000000</v>
+        <v>43009000000</v>
       </c>
       <c r="I34" t="n">
-        <v>196000000</v>
+        <v>2589000000</v>
       </c>
       <c r="J34" t="n">
-        <v>-5084000000</v>
+        <v>-15584000000</v>
       </c>
       <c r="K34" t="n">
-        <v>242000000</v>
+        <v>13256000000</v>
       </c>
       <c r="L34" t="n">
-        <v>1390000000</v>
+        <v>14997000000</v>
       </c>
       <c r="M34" t="n">
-        <v>2525000000</v>
+        <v>8769000000</v>
       </c>
       <c r="N34" t="n">
-        <v>1171000000</v>
+        <v>8891000000</v>
       </c>
       <c r="O34" t="n">
-        <v>21301000000</v>
+        <v>96773000000</v>
       </c>
       <c r="P34" t="n">
-        <v>64378000000</v>
+        <v>62634000000</v>
       </c>
     </row>
     <row r="35">
@@ -6425,50 +7025,50 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>112832000000</v>
+        <v>109226000000</v>
       </c>
       <c r="D35" t="n">
-        <v>14635000000</v>
+        <v>11805000000</v>
       </c>
       <c r="E35" t="n">
-        <v>20922000000</v>
+        <v>17605000000</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="G35" t="n">
-        <v>4578000000</v>
+        <v>3696000000</v>
       </c>
       <c r="H35" t="n">
-        <v>45569000000</v>
+        <v>44046000000</v>
       </c>
       <c r="I35" t="n">
-        <v>2736000000</v>
+        <v>196000000</v>
       </c>
       <c r="J35" t="n">
-        <v>-8309000000</v>
+        <v>-5084000000</v>
       </c>
       <c r="K35" t="n">
-        <v>3854000000</v>
+        <v>242000000</v>
       </c>
       <c r="L35" t="n">
-        <v>1400000000</v>
+        <v>1390000000</v>
       </c>
       <c r="M35" t="n">
-        <v>2973000000</v>
+        <v>2525000000</v>
       </c>
       <c r="N35" t="n">
-        <v>1605000000</v>
+        <v>1171000000</v>
       </c>
       <c r="O35" t="n">
-        <v>25500000000</v>
+        <v>21301000000</v>
       </c>
       <c r="P35" t="n">
-        <v>66468000000</v>
+        <v>64378000000</v>
       </c>
     </row>
     <row r="36">
@@ -6479,50 +7079,50 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>119852000000</v>
+        <v>112832000000</v>
       </c>
       <c r="D36" t="n">
-        <v>18111000000</v>
+        <v>14635000000</v>
       </c>
       <c r="E36" t="n">
-        <v>20185000000</v>
+        <v>20922000000</v>
       </c>
       <c r="F36" t="n">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="G36" t="n">
-        <v>4997000000</v>
+        <v>4578000000</v>
       </c>
       <c r="H36" t="n">
-        <v>49142000000</v>
+        <v>45569000000</v>
       </c>
       <c r="I36" t="n">
-        <v>2868000000</v>
+        <v>2736000000</v>
       </c>
       <c r="J36" t="n">
-        <v>-11184000000</v>
+        <v>-8309000000</v>
       </c>
       <c r="K36" t="n">
-        <v>10109000000</v>
+        <v>3854000000</v>
       </c>
       <c r="L36" t="n">
-        <v>2167000000</v>
+        <v>1400000000</v>
       </c>
       <c r="M36" t="n">
-        <v>2280000000</v>
+        <v>2973000000</v>
       </c>
       <c r="N36" t="n">
-        <v>2717000000</v>
+        <v>1605000000</v>
       </c>
       <c r="O36" t="n">
-        <v>25182000000</v>
+        <v>25500000000</v>
       </c>
       <c r="P36" t="n">
-        <v>69931000000</v>
+        <v>66468000000</v>
       </c>
     </row>
     <row r="37">
@@ -6533,30 +7133,50 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>122070000000</v>
+        <v>119852000000</v>
       </c>
       <c r="D37" t="n">
-        <v>16139000000</v>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+        <v>18111000000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>20185000000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4997000000</v>
+      </c>
       <c r="H37" t="n">
-        <v>48390000000</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+        <v>49142000000</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2868000000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-11184000000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10109000000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2173000000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2280000000</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2717000000</v>
+      </c>
+      <c r="O37" t="n">
+        <v>25182000000</v>
+      </c>
       <c r="P37" t="n">
-        <v>72913000000</v>
+        <v>69931000000</v>
       </c>
     </row>
     <row r="38">
@@ -6567,50 +7187,50 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>125111000000</v>
+        <v>122070000000</v>
       </c>
       <c r="D38" t="n">
-        <v>16352000000</v>
+        <v>16139000000</v>
       </c>
       <c r="E38" t="n">
-        <v>16182000000</v>
+        <v>80240000000</v>
       </c>
       <c r="F38" t="n">
-        <v>0.12</v>
+        <v>2.04</v>
       </c>
       <c r="G38" t="n">
-        <v>3153000000</v>
+        <v>17450000000</v>
       </c>
       <c r="H38" t="n">
-        <v>49693000000</v>
+        <v>48390000000</v>
       </c>
       <c r="I38" t="n">
-        <v>-332000000</v>
+        <v>3853000000</v>
       </c>
       <c r="J38" t="n">
-        <v>-1651000000</v>
+        <v>-18787000000</v>
       </c>
       <c r="K38" t="n">
-        <v>2156000000</v>
+        <v>14923000000</v>
       </c>
       <c r="L38" t="n">
-        <v>409000000</v>
+        <v>7091000000</v>
       </c>
       <c r="M38" t="n">
-        <v>2754000000</v>
+        <v>10374000000</v>
       </c>
       <c r="N38" t="n">
-        <v>399000000</v>
+        <v>7076000000</v>
       </c>
       <c r="O38" t="n">
-        <v>19335000000</v>
+        <v>97690000000</v>
       </c>
       <c r="P38" t="n">
-        <v>74653000000</v>
+        <v>72913000000</v>
       </c>
     </row>
     <row r="39">
@@ -6621,120 +7241,158 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>128567000000</v>
+        <v>125111000000</v>
       </c>
       <c r="D39" t="n">
-        <v>15587000000</v>
+        <v>16352000000</v>
       </c>
       <c r="E39" t="n">
-        <v>18618000000</v>
+        <v>16182000000</v>
       </c>
       <c r="F39" t="n">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G39" t="n">
-        <v>3878000000</v>
+        <v>3153000000</v>
       </c>
       <c r="H39" t="n">
-        <v>50495000000</v>
+        <v>49693000000</v>
       </c>
       <c r="I39" t="n">
-        <v>-554000000</v>
+        <v>-332000000</v>
       </c>
       <c r="J39" t="n">
-        <v>-4595000000</v>
+        <v>-1651000000</v>
       </c>
       <c r="K39" t="n">
-        <v>4696000000</v>
+        <v>2156000000</v>
       </c>
       <c r="L39" t="n">
-        <v>1172000000</v>
+        <v>409000000</v>
       </c>
       <c r="M39" t="n">
-        <v>2955000000</v>
+        <v>2754000000</v>
       </c>
       <c r="N39" t="n">
-        <v>923000000</v>
+        <v>399000000</v>
       </c>
       <c r="O39" t="n">
-        <v>22496000000</v>
+        <v>19335000000</v>
       </c>
       <c r="P39" t="n">
-        <v>77314000000</v>
+        <v>74653000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>JP Morgan</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2009-09-30</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>128567000000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>15587000000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18618000000</v>
+      </c>
       <c r="F40" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+        <v>0.33</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3878000000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>50495000000</v>
+      </c>
       <c r="I40" t="n">
-        <v>-154558000000</v>
+        <v>-554000000</v>
       </c>
       <c r="J40" t="n">
-        <v>37595000000</v>
+        <v>-4595000000</v>
       </c>
       <c r="K40" t="n">
-        <v>110884000000</v>
+        <v>4696000000</v>
       </c>
       <c r="L40" t="n">
-        <v>3588000000</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+        <v>1172000000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2955000000</v>
+      </c>
+      <c r="N40" t="n">
+        <v>923000000</v>
+      </c>
       <c r="O40" t="n">
-        <v>26622000000</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
+        <v>22496000000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>77314000000</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JP Morgan</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2009-12-31</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2119673000000</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+        <v>133735000000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>18289000000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>23041000000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5054000000</v>
+      </c>
       <c r="H41" t="n">
-        <v>1958828000000</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
+        <v>53019000000</v>
+      </c>
+      <c r="I41" t="n">
+        <v>429000000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-8950000000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10934000000</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1373000000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3430000000</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1624000000</v>
+      </c>
+      <c r="O41" t="n">
+        <v>28095000000</v>
+      </c>
       <c r="P41" t="n">
-        <v>160845000000</v>
+        <v>79970000000</v>
       </c>
     </row>
     <row r="42">
@@ -6745,33 +7403,33 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2010-03-31</t>
+          <t>2008-12-31</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>0.74</v>
+        <v>1.35</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>2023000000</v>
+        <v>246999000000</v>
       </c>
       <c r="J42" t="n">
-        <v>-13862000000</v>
+        <v>-283671000000</v>
       </c>
       <c r="K42" t="n">
-        <v>17394000000</v>
+        <v>23930000000</v>
       </c>
       <c r="L42" t="n">
-        <v>3326000000</v>
+        <v>5605000000</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>27671000000</v>
+        <v>67252000000</v>
       </c>
       <c r="P42" t="inlineStr"/>
     </row>
@@ -6783,35 +7441,41 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2010-06-30</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
+          <t>2009-12-31</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2119673000000</v>
+      </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>1.09</v>
+        <v>2.26</v>
       </c>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>1958828000000</v>
+      </c>
       <c r="I43" t="n">
-        <v>-112324000000</v>
+        <v>-153079000000</v>
       </c>
       <c r="J43" t="n">
-        <v>73674000000</v>
+        <v>29355000000</v>
       </c>
       <c r="K43" t="n">
-        <v>45727000000</v>
+        <v>122797000000</v>
       </c>
       <c r="L43" t="n">
-        <v>4795000000</v>
+        <v>11728000000</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>25101000000</v>
-      </c>
-      <c r="P43" t="inlineStr"/>
+        <v>100434000000</v>
+      </c>
+      <c r="P43" t="n">
+        <v>160845000000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6821,41 +7485,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2010-09-30</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2141595000000</v>
-      </c>
+          <t>2010-03-31</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>1.01</v>
+        <v>0.74</v>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>1967765000000</v>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>-18573000000</v>
+        <v>2023000000</v>
       </c>
       <c r="J44" t="n">
-        <v>20721000000</v>
+        <v>-13862000000</v>
       </c>
       <c r="K44" t="n">
-        <v>-4863000000</v>
+        <v>17394000000</v>
       </c>
       <c r="L44" t="n">
-        <v>4418000000</v>
+        <v>3326000000</v>
       </c>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="n">
-        <v>23824000000</v>
-      </c>
-      <c r="P44" t="n">
-        <v>173830000000</v>
-      </c>
+        <v>27671000000</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6865,29 +7523,35 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2010-12-31</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2117605000000</v>
-      </c>
+          <t>2010-06-30</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>1.09</v>
+      </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>1941499000000</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>-112324000000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>73674000000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>45727000000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4795000000</v>
+      </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="n">
-        <v>176106000000</v>
-      </c>
+      <c r="O45" t="n">
+        <v>25101000000</v>
+      </c>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6897,41 +7561,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2011-03-31</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2198161000000</v>
-      </c>
+          <t>2010-09-30</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>2017563000000</v>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>67328000000</v>
+        <v>-18573000000</v>
       </c>
       <c r="J46" t="n">
-        <v>-65810000000</v>
+        <v>20721000000</v>
       </c>
       <c r="K46" t="n">
-        <v>-5979000000</v>
+        <v>-4863000000</v>
       </c>
       <c r="L46" t="n">
-        <v>5555000000</v>
+        <v>4418000000</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="n">
-        <v>25221000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>180598000000</v>
-      </c>
+        <v>23824000000</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6941,40 +7599,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2011-06-30</t>
+          <t>2010-12-31</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2246764000000</v>
+        <v>2117605000000</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>1.27</v>
+        <v>3.96</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>2063885000000</v>
+        <v>1941499000000</v>
       </c>
       <c r="I47" t="n">
-        <v>89325000000</v>
+        <v>-49217000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-145807000000</v>
+        <v>54002000000</v>
       </c>
       <c r="K47" t="n">
-        <v>58725000000</v>
+        <v>-3752000000</v>
       </c>
       <c r="L47" t="n">
-        <v>5431000000</v>
+        <v>17370000000</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="n">
-        <v>26779000000</v>
+        <v>102694000000</v>
       </c>
       <c r="P47" t="n">
-        <v>182879000000</v>
+        <v>176106000000</v>
       </c>
     </row>
     <row r="48">
@@ -6985,40 +7643,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2011-09-30</t>
+          <t>2011-03-31</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2289240000000</v>
+        <v>2198161000000</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>2106953000000</v>
+        <v>2017563000000</v>
       </c>
       <c r="I48" t="n">
-        <v>132365000000</v>
+        <v>67328000000</v>
       </c>
       <c r="J48" t="n">
-        <v>-169667000000</v>
+        <v>-65810000000</v>
       </c>
       <c r="K48" t="n">
-        <v>66518000000</v>
+        <v>-5979000000</v>
       </c>
       <c r="L48" t="n">
-        <v>4262000000</v>
+        <v>5555000000</v>
       </c>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>23763000000</v>
+        <v>25221000000</v>
       </c>
       <c r="P48" t="n">
-        <v>182287000000</v>
+        <v>180598000000</v>
       </c>
     </row>
     <row r="49">
@@ -7029,28 +7687,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2011-12-31</t>
+          <t>2011-06-30</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2265792000000</v>
+        <v>2246764000000</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>1.27</v>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>2082219000000</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+        <v>2063885000000</v>
+      </c>
+      <c r="I49" t="n">
+        <v>89325000000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-145807000000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>58725000000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5431000000</v>
+      </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>26779000000</v>
+      </c>
       <c r="P49" t="n">
-        <v>183573000000</v>
+        <v>182879000000</v>
       </c>
     </row>
     <row r="50">
@@ -7061,40 +7731,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2012-03-31</t>
+          <t>2011-09-30</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2320164000000</v>
+        <v>2289240000000</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>2130602000000</v>
+        <v>2106953000000</v>
       </c>
       <c r="I50" t="n">
-        <v>35352000000</v>
+        <v>132365000000</v>
       </c>
       <c r="J50" t="n">
-        <v>-45362000000</v>
+        <v>-169667000000</v>
       </c>
       <c r="K50" t="n">
-        <v>4266000000</v>
+        <v>66518000000</v>
       </c>
       <c r="L50" t="n">
-        <v>4924000000</v>
+        <v>4262000000</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>26052000000</v>
+        <v>23763000000</v>
       </c>
       <c r="P50" t="n">
-        <v>189728000000</v>
+        <v>182287000000</v>
       </c>
     </row>
     <row r="51">
@@ -7105,40 +7775,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2012-06-30</t>
+          <t>2011-12-31</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2290146000000</v>
+        <v>2265792000000</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>1.21</v>
+        <v>4.48</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>2098574000000</v>
+        <v>2082219000000</v>
       </c>
       <c r="I51" t="n">
-        <v>4867000000</v>
+        <v>107706000000</v>
       </c>
       <c r="J51" t="n">
-        <v>-65962000000</v>
+        <v>-170752000000</v>
       </c>
       <c r="K51" t="n">
-        <v>46249000000</v>
+        <v>95932000000</v>
       </c>
       <c r="L51" t="n">
-        <v>4960000000</v>
+        <v>18976000000</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="n">
-        <v>22180000000</v>
+        <v>97234000000</v>
       </c>
       <c r="P51" t="n">
-        <v>191572000000</v>
+        <v>183573000000</v>
       </c>
     </row>
     <row r="52">
@@ -7149,40 +7819,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2012-09-30</t>
+          <t>2012-03-31</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2321284000000</v>
+        <v>2320164000000</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>2121591000000</v>
+        <v>2130602000000</v>
       </c>
       <c r="I52" t="n">
-        <v>33621000000</v>
+        <v>35352000000</v>
       </c>
       <c r="J52" t="n">
-        <v>-69721000000</v>
+        <v>-45362000000</v>
       </c>
       <c r="K52" t="n">
-        <v>29590000000</v>
+        <v>4266000000</v>
       </c>
       <c r="L52" t="n">
-        <v>5708000000</v>
+        <v>4924000000</v>
       </c>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="n">
-        <v>25146000000</v>
+        <v>26052000000</v>
       </c>
       <c r="P52" t="n">
-        <v>199693000000</v>
+        <v>189728000000</v>
       </c>
     </row>
     <row r="53">
@@ -7193,28 +7863,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2012-12-31</t>
+          <t>2012-06-30</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2359141000000</v>
+        <v>2290146000000</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>1.21</v>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>2155072000000</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+        <v>2098574000000</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4867000000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-65962000000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>46249000000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>4960000000</v>
+      </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>22180000000</v>
+      </c>
       <c r="P53" t="n">
-        <v>204069000000</v>
+        <v>191572000000</v>
       </c>
     </row>
     <row r="54">
@@ -7225,40 +7907,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2013-03-31</t>
+          <t>2012-09-30</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2389349000000</v>
+        <v>2321284000000</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>2182263000000</v>
+        <v>2121591000000</v>
       </c>
       <c r="I54" t="n">
-        <v>28180000000</v>
+        <v>33621000000</v>
       </c>
       <c r="J54" t="n">
-        <v>-55455000000</v>
+        <v>-69721000000</v>
       </c>
       <c r="K54" t="n">
-        <v>19964000000</v>
+        <v>29590000000</v>
       </c>
       <c r="L54" t="n">
-        <v>6529000000</v>
+        <v>5708000000</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="n">
-        <v>25122000000</v>
+        <v>25146000000</v>
       </c>
       <c r="P54" t="n">
-        <v>207086000000</v>
+        <v>199693000000</v>
       </c>
     </row>
     <row r="55">
@@ -7269,40 +7951,40 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2013-06-30</t>
+          <t>2012-12-31</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2439494000000</v>
+        <v>2359141000000</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>2230255000000</v>
+        <v>2155072000000</v>
       </c>
       <c r="I55" t="n">
-        <v>30108000000</v>
+        <v>87707000000</v>
       </c>
       <c r="J55" t="n">
-        <v>-142245000000</v>
+        <v>-119825000000</v>
       </c>
       <c r="K55" t="n">
-        <v>88484000000</v>
+        <v>25079000000</v>
       </c>
       <c r="L55" t="n">
-        <v>6496000000</v>
+        <v>21284000000</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
-        <v>25211000000</v>
+        <v>97031000000</v>
       </c>
       <c r="P55" t="n">
-        <v>209239000000</v>
+        <v>204069000000</v>
       </c>
     </row>
     <row r="56">
@@ -7313,40 +7995,40 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2013-09-30</t>
+          <t>2013-03-31</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2463309000000</v>
+        <v>2389349000000</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>-0.17</v>
+        <v>1.59</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>2256639000000</v>
+        <v>2182263000000</v>
       </c>
       <c r="I56" t="n">
-        <v>51243000000</v>
+        <v>28180000000</v>
       </c>
       <c r="J56" t="n">
-        <v>-189101000000</v>
+        <v>-55455000000</v>
       </c>
       <c r="K56" t="n">
-        <v>114867000000</v>
+        <v>19964000000</v>
       </c>
       <c r="L56" t="n">
-        <v>-380000000</v>
+        <v>6529000000</v>
       </c>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
-        <v>23117000000</v>
+        <v>25122000000</v>
       </c>
       <c r="P56" t="n">
-        <v>206670000000</v>
+        <v>207086000000</v>
       </c>
     </row>
     <row r="57">
@@ -7357,28 +8039,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2013-12-31</t>
+          <t>2013-06-30</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2415689000000</v>
+        <v>2439494000000</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>1.6</v>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>2204511000000</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+        <v>2230255000000</v>
+      </c>
+      <c r="I57" t="n">
+        <v>30108000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-142245000000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>88484000000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6496000000</v>
+      </c>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>25211000000</v>
+      </c>
       <c r="P57" t="n">
-        <v>211178000000</v>
+        <v>209239000000</v>
       </c>
     </row>
     <row r="58">
@@ -7389,40 +8083,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2014-03-31</t>
+          <t>2013-09-30</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2476650000000</v>
+        <v>2463309000000</v>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>1.28</v>
+        <v>-0.17</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>2257331000000</v>
+        <v>2256639000000</v>
       </c>
       <c r="I58" t="n">
-        <v>40318000000</v>
+        <v>51243000000</v>
       </c>
       <c r="J58" t="n">
-        <v>-68410000000</v>
+        <v>-189101000000</v>
       </c>
       <c r="K58" t="n">
-        <v>14667000000</v>
+        <v>114867000000</v>
       </c>
       <c r="L58" t="n">
-        <v>5269000000</v>
+        <v>-380000000</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>22993000000</v>
+        <v>23117000000</v>
       </c>
       <c r="P58" t="n">
-        <v>219655000000</v>
+        <v>206670000000</v>
       </c>
     </row>
     <row r="59">
@@ -7433,40 +8127,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2014-06-30</t>
+          <t>2013-12-31</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2519995000000</v>
+        <v>2414879000000</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>1.46</v>
+        <v>4.34</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>2293022000000</v>
+        <v>2204511000000</v>
       </c>
       <c r="I59" t="n">
-        <v>75436000000</v>
+        <v>28324000000</v>
       </c>
       <c r="J59" t="n">
-        <v>-97938000000</v>
+        <v>-150501000000</v>
       </c>
       <c r="K59" t="n">
-        <v>10296000000</v>
+        <v>107953000000</v>
       </c>
       <c r="L59" t="n">
-        <v>5980000000</v>
+        <v>17886000000</v>
       </c>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>24454000000</v>
+        <v>97367000000</v>
       </c>
       <c r="P59" t="n">
-        <v>227314000000</v>
+        <v>211178000000</v>
       </c>
     </row>
     <row r="60">
@@ -7477,40 +8171,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2014-03-31</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2526655000000</v>
+        <v>2476650000000</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>2295728000000</v>
+        <v>2257331000000</v>
       </c>
       <c r="I60" t="n">
-        <v>74061000000</v>
+        <v>40318000000</v>
       </c>
       <c r="J60" t="n">
-        <v>-95630000000</v>
+        <v>-68410000000</v>
       </c>
       <c r="K60" t="n">
-        <v>7847000000</v>
+        <v>14667000000</v>
       </c>
       <c r="L60" t="n">
-        <v>5565000000</v>
+        <v>5269000000</v>
       </c>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
-        <v>24246000000</v>
+        <v>22993000000</v>
       </c>
       <c r="P60" t="n">
-        <v>231277000000</v>
+        <v>219655000000</v>
       </c>
     </row>
     <row r="61">
@@ -7521,28 +8215,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2014-12-31</t>
+          <t>2014-06-30</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2572773000000</v>
+        <v>2519995000000</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="n">
+        <v>1.46</v>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>2341046000000</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+        <v>2293022000000</v>
+      </c>
+      <c r="I61" t="n">
+        <v>75436000000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-97938000000</v>
+      </c>
+      <c r="K61" t="n">
+        <v>10296000000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5980000000</v>
+      </c>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>24454000000</v>
+      </c>
       <c r="P61" t="n">
-        <v>231727000000</v>
+        <v>227314000000</v>
       </c>
     </row>
     <row r="62">
@@ -7553,38 +8259,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2015-03-31</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2576619000000</v>
+        <v>2526655000000</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>2341284000000</v>
+        <v>2295728000000</v>
       </c>
       <c r="I62" t="n">
-        <v>4337000000</v>
+        <v>74061000000</v>
       </c>
       <c r="J62" t="n">
-        <v>-24150000000</v>
+        <v>-95630000000</v>
       </c>
       <c r="K62" t="n">
-        <v>14879000000</v>
+        <v>7847000000</v>
       </c>
       <c r="L62" t="n">
-        <v>5914000000</v>
+        <v>5565000000</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" t="n">
+        <v>24246000000</v>
+      </c>
       <c r="P62" t="n">
-        <v>235864000000</v>
+        <v>231277000000</v>
       </c>
     </row>
     <row r="63">
@@ -7595,38 +8303,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2015-06-30</t>
+          <t>2014-12-31</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2449098000000</v>
+        <v>2572274000000</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>1.54</v>
+        <v>5.29</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>2208394000000</v>
+        <v>2340547000000</v>
       </c>
       <c r="I63" t="n">
-        <v>-113429000000</v>
+        <v>118228000000</v>
       </c>
       <c r="J63" t="n">
-        <v>77471000000</v>
+        <v>-165636000000</v>
       </c>
       <c r="K63" t="n">
-        <v>32175000000</v>
+        <v>36593000000</v>
       </c>
       <c r="L63" t="n">
-        <v>6290000000</v>
+        <v>21745000000</v>
       </c>
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>95112000000</v>
+      </c>
       <c r="P63" t="n">
-        <v>241205000000</v>
+        <v>231727000000</v>
       </c>
     </row>
     <row r="64">
@@ -7637,38 +8347,38 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2015-09-30</t>
+          <t>2015-03-31</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2416635000000</v>
+        <v>2576619000000</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>2171393000000</v>
+        <v>2341284000000</v>
       </c>
       <c r="I64" t="n">
-        <v>-143513000000</v>
+        <v>4337000000</v>
       </c>
       <c r="J64" t="n">
-        <v>79722000000</v>
+        <v>-24150000000</v>
       </c>
       <c r="K64" t="n">
-        <v>57299000000</v>
+        <v>14879000000</v>
       </c>
       <c r="L64" t="n">
-        <v>6804000000</v>
+        <v>5914000000</v>
       </c>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>245728000000</v>
+        <v>235864000000</v>
       </c>
     </row>
     <row r="65">
@@ -7679,28 +8389,38 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2015-12-31</t>
+          <t>2015-06-30</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2351698000000</v>
+        <v>2449098000000</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>1.54</v>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>2104125000000</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+        <v>2208394000000</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-113429000000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>77471000000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>32175000000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6290000000</v>
+      </c>
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>247573000000</v>
+        <v>241205000000</v>
       </c>
     </row>
     <row r="66">
@@ -7711,38 +8431,38 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2016-03-31</t>
+          <t>2015-09-30</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2423808000000</v>
+        <v>2416635000000</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>2173651000000</v>
+        <v>2171393000000</v>
       </c>
       <c r="I66" t="n">
-        <v>53584000000</v>
+        <v>-143513000000</v>
       </c>
       <c r="J66" t="n">
-        <v>-34581000000</v>
+        <v>79722000000</v>
       </c>
       <c r="K66" t="n">
-        <v>-21383000000</v>
+        <v>57299000000</v>
       </c>
       <c r="L66" t="n">
-        <v>5520000000</v>
+        <v>6804000000</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
-        <v>250157000000</v>
+        <v>245728000000</v>
       </c>
     </row>
     <row r="67">
@@ -7753,38 +8473,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2015-12-31</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2466096000000</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>2351698000000</v>
+      </c>
+      <c r="D67" t="n">
+        <v>361683000000</v>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>1.55</v>
+        <v>6</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>2213673000000</v>
+        <v>2104125000000</v>
       </c>
       <c r="I67" t="n">
-        <v>74159000000</v>
+        <v>-187511000000</v>
       </c>
       <c r="J67" t="n">
-        <v>-52064000000</v>
+        <v>106980000000</v>
       </c>
       <c r="K67" t="n">
-        <v>-22907000000</v>
+        <v>73466000000</v>
       </c>
       <c r="L67" t="n">
-        <v>6200000000</v>
+        <v>24442000000</v>
       </c>
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="n">
+        <v>93543000000</v>
+      </c>
       <c r="P67" t="n">
-        <v>252423000000</v>
+        <v>247573000000</v>
       </c>
     </row>
     <row r="68">
@@ -7795,38 +8519,38 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2016-09-30</t>
+          <t>2016-03-31</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2521029000000</v>
+        <v>2423808000000</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>2266698000000</v>
+        <v>2173651000000</v>
       </c>
       <c r="I68" t="n">
-        <v>131699000000</v>
+        <v>53584000000</v>
       </c>
       <c r="J68" t="n">
-        <v>-112102000000</v>
+        <v>-34581000000</v>
       </c>
       <c r="K68" t="n">
-        <v>-18715000000</v>
+        <v>-21383000000</v>
       </c>
       <c r="L68" t="n">
-        <v>6286000000</v>
+        <v>5520000000</v>
       </c>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>254331000000</v>
+        <v>250157000000</v>
       </c>
     </row>
     <row r="69">
@@ -7837,30 +8561,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2016-12-31</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2490972000000</v>
-      </c>
-      <c r="D69" t="n">
-        <v>391154000000</v>
-      </c>
+        <v>2466096000000</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>1.55</v>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>2236782000000</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+        <v>2213673000000</v>
+      </c>
+      <c r="I69" t="n">
+        <v>74159000000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-52064000000</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-22907000000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6200000000</v>
+      </c>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>254190000000</v>
+        <v>252423000000</v>
       </c>
     </row>
     <row r="70">
@@ -7871,40 +8603,38 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2017-03-31</t>
+          <t>2016-09-30</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2546290000000</v>
-      </c>
-      <c r="D70" t="n">
-        <v>461886000000</v>
-      </c>
+        <v>2521029000000</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>2290427000000</v>
+        <v>2266698000000</v>
       </c>
       <c r="I70" t="n">
-        <v>43605000000</v>
+        <v>131699000000</v>
       </c>
       <c r="J70" t="n">
-        <v>47112000000</v>
+        <v>-112102000000</v>
       </c>
       <c r="K70" t="n">
-        <v>-22559000000</v>
+        <v>-18715000000</v>
       </c>
       <c r="L70" t="n">
-        <v>6448000000</v>
+        <v>6286000000</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
-        <v>255863000000</v>
+        <v>254331000000</v>
       </c>
     </row>
     <row r="71">
@@ -7915,40 +8645,42 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2017-06-30</t>
+          <t>2016-12-31</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2563174000000</v>
+        <v>2490972000000</v>
       </c>
       <c r="D71" t="n">
-        <v>450526000000</v>
+        <v>391154000000</v>
       </c>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="n">
-        <v>1.82</v>
+        <v>6.19</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>2304691000000</v>
+        <v>2236782000000</v>
       </c>
       <c r="I71" t="n">
-        <v>47911000000</v>
+        <v>98271000000</v>
       </c>
       <c r="J71" t="n">
-        <v>24539000000</v>
+        <v>-89202000000</v>
       </c>
       <c r="K71" t="n">
-        <v>-18486000000</v>
+        <v>21884000000</v>
       </c>
       <c r="L71" t="n">
-        <v>7029000000</v>
+        <v>24733000000</v>
       </c>
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="n">
+        <v>96569000000</v>
+      </c>
       <c r="P71" t="n">
-        <v>258483000000</v>
+        <v>254190000000</v>
       </c>
     </row>
     <row r="72">
@@ -7959,40 +8691,40 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2017-09-30</t>
+          <t>2017-03-31</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2563074000000</v>
+        <v>2546290000000</v>
       </c>
       <c r="D72" t="n">
-        <v>459156000000</v>
+        <v>461886000000</v>
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>2304692000000</v>
+        <v>2290427000000</v>
       </c>
       <c r="I72" t="n">
-        <v>36405000000</v>
+        <v>43605000000</v>
       </c>
       <c r="J72" t="n">
-        <v>47706000000</v>
+        <v>47112000000</v>
       </c>
       <c r="K72" t="n">
-        <v>-23381000000</v>
+        <v>-22559000000</v>
       </c>
       <c r="L72" t="n">
-        <v>6732000000</v>
+        <v>6448000000</v>
       </c>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>258382000000</v>
+        <v>255863000000</v>
       </c>
     </row>
     <row r="73">
@@ -8003,30 +8735,40 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2017-12-31</t>
+          <t>2017-06-30</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2533600000000</v>
+        <v>2563174000000</v>
       </c>
       <c r="D73" t="n">
-        <v>431304000000</v>
+        <v>450526000000</v>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>1.82</v>
+      </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>2277907000000</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+        <v>2304691000000</v>
+      </c>
+      <c r="I73" t="n">
+        <v>47911000000</v>
+      </c>
+      <c r="J73" t="n">
+        <v>24539000000</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-18486000000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7029000000</v>
+      </c>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
-        <v>255693000000</v>
+        <v>258483000000</v>
       </c>
     </row>
     <row r="74">
@@ -8037,40 +8779,40 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>2017-09-30</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2609785000000</v>
+        <v>2563074000000</v>
       </c>
       <c r="D74" t="n">
-        <v>414812000000</v>
+        <v>459156000000</v>
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
-        <v>2.37</v>
+        <v>1.76</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>2353584000000</v>
+        <v>2304692000000</v>
       </c>
       <c r="I74" t="n">
-        <v>60589000000</v>
+        <v>36405000000</v>
       </c>
       <c r="J74" t="n">
-        <v>-45021000000</v>
+        <v>47706000000</v>
       </c>
       <c r="K74" t="n">
-        <v>-35109000000</v>
+        <v>-23381000000</v>
       </c>
       <c r="L74" t="n">
-        <v>8712000000</v>
+        <v>6732000000</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
-        <v>256201000000</v>
+        <v>258382000000</v>
       </c>
     </row>
     <row r="75">
@@ -8081,40 +8823,42 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>2017-12-31</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2590050000000</v>
+        <v>2533600000000</v>
       </c>
       <c r="D75" t="n">
-        <v>405180000000</v>
+        <v>431304000000</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
-        <v>2.29</v>
+        <v>6.31</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>2332592000000</v>
+        <v>2277907000000</v>
       </c>
       <c r="I75" t="n">
-        <v>13766000000</v>
+        <v>14642000000</v>
       </c>
       <c r="J75" t="n">
-        <v>-38974000000</v>
+        <v>28249000000</v>
       </c>
       <c r="K75" t="n">
-        <v>576000000</v>
+        <v>-10827000000</v>
       </c>
       <c r="L75" t="n">
-        <v>8316000000</v>
+        <v>24441000000</v>
       </c>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>100705000000</v>
+      </c>
       <c r="P75" t="n">
-        <v>257458000000</v>
+        <v>255693000000</v>
       </c>
     </row>
     <row r="76">
@@ -8125,40 +8869,40 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>2018-03-31</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2615183000000</v>
+        <v>2609785000000</v>
       </c>
       <c r="D76" t="n">
-        <v>419097000000</v>
+        <v>414812000000</v>
       </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
-        <v>2.34</v>
+        <v>2.37</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>2356227000000</v>
+        <v>2353584000000</v>
       </c>
       <c r="I76" t="n">
-        <v>16319000000</v>
+        <v>60589000000</v>
       </c>
       <c r="J76" t="n">
-        <v>-39782000000</v>
+        <v>-45021000000</v>
       </c>
       <c r="K76" t="n">
-        <v>13765000000</v>
+        <v>-35109000000</v>
       </c>
       <c r="L76" t="n">
-        <v>8380000000</v>
+        <v>8712000000</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
-        <v>258956000000</v>
+        <v>256201000000</v>
       </c>
     </row>
     <row r="77">
@@ -8169,28 +8913,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>2018-06-30</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2622532000000</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>2590050000000</v>
+      </c>
+      <c r="D77" t="n">
+        <v>405180000000</v>
+      </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>2.29</v>
+      </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>2366017000000</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+        <v>2332592000000</v>
+      </c>
+      <c r="I77" t="n">
+        <v>13766000000</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-38974000000</v>
+      </c>
+      <c r="K77" t="n">
+        <v>576000000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8316000000</v>
+      </c>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
-        <v>256515000000</v>
+        <v>257458000000</v>
       </c>
     </row>
     <row r="78">
@@ -8201,38 +8957,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>2018-09-30</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2737188000000</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>2615183000000</v>
+      </c>
+      <c r="D78" t="n">
+        <v>419097000000</v>
+      </c>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="n">
-        <v>2.65</v>
+        <v>2.34</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>2477351000000</v>
+        <v>2356227000000</v>
       </c>
       <c r="I78" t="n">
-        <v>69435000000</v>
+        <v>16319000000</v>
       </c>
       <c r="J78" t="n">
-        <v>36301000000</v>
+        <v>-39782000000</v>
       </c>
       <c r="K78" t="n">
-        <v>-80880000000</v>
+        <v>13765000000</v>
       </c>
       <c r="L78" t="n">
-        <v>9179000000</v>
+        <v>8380000000</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
-        <v>259837000000</v>
+        <v>258956000000</v>
       </c>
     </row>
     <row r="79">
@@ -8243,38 +9001,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>2018-12-31</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2727379000000</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>2622532000000</v>
+      </c>
+      <c r="D79" t="n">
+        <v>278793000000</v>
+      </c>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
-        <v>2.82</v>
+        <v>9</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>2464164000000</v>
+        <v>2366017000000</v>
       </c>
       <c r="I79" t="n">
-        <v>56469000000</v>
+        <v>34158000000</v>
       </c>
       <c r="J79" t="n">
-        <v>27424000000</v>
+        <v>-199420000000</v>
       </c>
       <c r="K79" t="n">
-        <v>-94734000000</v>
+        <v>15614000000</v>
       </c>
       <c r="L79" t="n">
-        <v>9652000000</v>
+        <v>32474000000</v>
       </c>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="O79" t="n">
+        <v>108783000000</v>
+      </c>
       <c r="P79" t="n">
-        <v>263215000000</v>
+        <v>256515000000</v>
       </c>
     </row>
     <row r="80">
@@ -8285,38 +9047,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>2019-03-31</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2764661000000</v>
+        <v>2737188000000</v>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>2500313000000</v>
+        <v>2477351000000</v>
       </c>
       <c r="I80" t="n">
-        <v>96006000000</v>
+        <v>69435000000</v>
       </c>
       <c r="J80" t="n">
-        <v>-36501000000</v>
+        <v>36301000000</v>
       </c>
       <c r="K80" t="n">
-        <v>-78719000000</v>
+        <v>-80880000000</v>
       </c>
       <c r="L80" t="n">
-        <v>9080000000</v>
+        <v>9179000000</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
-        <v>264348000000</v>
+        <v>259837000000</v>
       </c>
     </row>
     <row r="81">
@@ -8327,28 +9089,38 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-06-30</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2687379000000</v>
+        <v>2727379000000</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>2.82</v>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>2426049000000</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+        <v>2464164000000</v>
+      </c>
+      <c r="I81" t="n">
+        <v>56469000000</v>
+      </c>
+      <c r="J81" t="n">
+        <v>27424000000</v>
+      </c>
+      <c r="K81" t="n">
+        <v>-94734000000</v>
+      </c>
+      <c r="L81" t="n">
+        <v>9652000000</v>
+      </c>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
-        <v>261330000000</v>
+        <v>263215000000</v>
       </c>
     </row>
     <row r="82">
@@ -8359,38 +9131,38 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>2019-09-30</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3138530000000</v>
+        <v>2764661000000</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
-        <v>0.78</v>
+        <v>2.68</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>2878169000000</v>
+        <v>2500313000000</v>
       </c>
       <c r="I82" t="n">
-        <v>362305000000</v>
+        <v>96006000000</v>
       </c>
       <c r="J82" t="n">
-        <v>-135833000000</v>
+        <v>-36501000000</v>
       </c>
       <c r="K82" t="n">
-        <v>-120089000000</v>
+        <v>-78719000000</v>
       </c>
       <c r="L82" t="n">
-        <v>2865000000</v>
+        <v>9080000000</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
-        <v>261262000000</v>
+        <v>264348000000</v>
       </c>
     </row>
     <row r="83">
@@ -8401,38 +9173,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3212643000000</v>
+        <v>2686477000000</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>1.38</v>
+        <v>10.72</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>2948649000000</v>
+        <v>2426049000000</v>
       </c>
       <c r="I83" t="n">
-        <v>451436000000</v>
+        <v>32987000000</v>
       </c>
       <c r="J83" t="n">
-        <v>-183479000000</v>
+        <v>-52059000000</v>
       </c>
       <c r="K83" t="n">
-        <v>-37170000000</v>
+        <v>4092000000</v>
       </c>
       <c r="L83" t="n">
-        <v>4687000000</v>
+        <v>36431000000</v>
       </c>
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>115720000000</v>
+      </c>
       <c r="P83" t="n">
-        <v>264466000000</v>
+        <v>261330000000</v>
       </c>
     </row>
     <row r="84">
@@ -8443,38 +9217,38 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-03-31</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3245061000000</v>
+        <v>3138530000000</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="n">
-        <v>2.92</v>
+        <v>0.78</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>2974963000000</v>
+        <v>2878169000000</v>
       </c>
       <c r="I84" t="n">
-        <v>470687000000</v>
+        <v>362305000000</v>
       </c>
       <c r="J84" t="n">
-        <v>-198206000000</v>
+        <v>-135833000000</v>
       </c>
       <c r="K84" t="n">
-        <v>-51858000000</v>
+        <v>-120089000000</v>
       </c>
       <c r="L84" t="n">
-        <v>9443000000</v>
+        <v>2865000000</v>
       </c>
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
-        <v>271113000000</v>
+        <v>261262000000</v>
       </c>
     </row>
     <row r="85">
@@ -8485,28 +9259,38 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3384757000000</v>
+        <v>3212643000000</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>1.38</v>
+      </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>3105403000000</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+        <v>2948649000000</v>
+      </c>
+      <c r="I85" t="n">
+        <v>451436000000</v>
+      </c>
+      <c r="J85" t="n">
+        <v>-183479000000</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-37170000000</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4687000000</v>
+      </c>
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
-        <v>279354000000</v>
+        <v>264466000000</v>
       </c>
     </row>
     <row r="86">
@@ -8517,38 +9301,38 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3689336000000</v>
+        <v>3245061000000</v>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>4.5</v>
+        <v>2.92</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>3408622000000</v>
+        <v>2974963000000</v>
       </c>
       <c r="I86" t="n">
-        <v>218911000000</v>
+        <v>470687000000</v>
       </c>
       <c r="J86" t="n">
-        <v>15391000000</v>
+        <v>-198206000000</v>
       </c>
       <c r="K86" t="n">
-        <v>-43872000000</v>
+        <v>-51858000000</v>
       </c>
       <c r="L86" t="n">
-        <v>14300000000</v>
+        <v>9443000000</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
-        <v>280714000000</v>
+        <v>271113000000</v>
       </c>
     </row>
     <row r="87">
@@ -8559,38 +9343,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3684256000000</v>
+        <v>3384757000000</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>3.78</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>3397870000000</v>
+        <v>3105403000000</v>
       </c>
       <c r="I87" t="n">
-        <v>180968000000</v>
+        <v>596645000000</v>
       </c>
       <c r="J87" t="n">
-        <v>33089000000</v>
+        <v>-261912000000</v>
       </c>
       <c r="K87" t="n">
-        <v>-30342000000</v>
+        <v>-79910000000</v>
       </c>
       <c r="L87" t="n">
-        <v>11948000000</v>
+        <v>29131000000</v>
       </c>
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="O87" t="n">
+        <v>119951000000</v>
+      </c>
       <c r="P87" t="n">
-        <v>286386000000</v>
+        <v>279354000000</v>
       </c>
     </row>
     <row r="88">
@@ -8601,38 +9387,38 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3757576000000</v>
+        <v>3689336000000</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>3.74</v>
+        <v>4.5</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>3467535000000</v>
+        <v>3408622000000</v>
       </c>
       <c r="I88" t="n">
-        <v>278015000000</v>
+        <v>218911000000</v>
       </c>
       <c r="J88" t="n">
-        <v>-29186000000</v>
+        <v>15391000000</v>
       </c>
       <c r="K88" t="n">
-        <v>-7011000000</v>
+        <v>-43872000000</v>
       </c>
       <c r="L88" t="n">
-        <v>11687000000</v>
+        <v>14300000000</v>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
-        <v>290041000000</v>
+        <v>280714000000</v>
       </c>
     </row>
     <row r="89">
@@ -8643,28 +9429,38 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3743567000000</v>
+        <v>3684256000000</v>
       </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+      <c r="F89" t="n">
+        <v>3.78</v>
+      </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>3449440000000</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>3397870000000</v>
+      </c>
+      <c r="I89" t="n">
+        <v>180968000000</v>
+      </c>
+      <c r="J89" t="n">
+        <v>33089000000</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-30342000000</v>
+      </c>
+      <c r="L89" t="n">
+        <v>11948000000</v>
+      </c>
       <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="n">
-        <v>294127000000</v>
+        <v>286386000000</v>
       </c>
     </row>
     <row r="90">
@@ -8675,38 +9471,38 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3954687000000</v>
+        <v>3757576000000</v>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
-        <v>2.63</v>
+        <v>3.74</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>3668788000000</v>
+        <v>3467535000000</v>
       </c>
       <c r="I90" t="n">
-        <v>132772000000</v>
+        <v>278015000000</v>
       </c>
       <c r="J90" t="n">
-        <v>-72608000000</v>
+        <v>-29186000000</v>
       </c>
       <c r="K90" t="n">
-        <v>-41917000000</v>
+        <v>-7011000000</v>
       </c>
       <c r="L90" t="n">
-        <v>8282000000</v>
+        <v>11687000000</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
-        <v>285899000000</v>
+        <v>290041000000</v>
       </c>
     </row>
     <row r="91">
@@ -8717,38 +9513,40 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3841314000000</v>
+        <v>3743567000000</v>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="n">
-        <v>2.76</v>
+        <v>15.36</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>3555171000000</v>
+        <v>3449440000000</v>
       </c>
       <c r="I91" t="n">
-        <v>48970000000</v>
+        <v>275993000000</v>
       </c>
       <c r="J91" t="n">
-        <v>-125811000000</v>
+        <v>-129344000000</v>
       </c>
       <c r="K91" t="n">
-        <v>24101000000</v>
+        <v>78084000000</v>
       </c>
       <c r="L91" t="n">
-        <v>8649000000</v>
+        <v>48334000000</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
+      <c r="O91" t="n">
+        <v>121649000000</v>
+      </c>
       <c r="P91" t="n">
-        <v>286143000000</v>
+        <v>294127000000</v>
       </c>
     </row>
     <row r="92">
@@ -8759,38 +9557,38 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3773884000000</v>
+        <v>3954687000000</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>3485866000000</v>
+        <v>3668788000000</v>
       </c>
       <c r="I92" t="n">
-        <v>16087000000</v>
+        <v>132772000000</v>
       </c>
       <c r="J92" t="n">
-        <v>-86289000000</v>
+        <v>-72608000000</v>
       </c>
       <c r="K92" t="n">
-        <v>5897000000</v>
+        <v>-41917000000</v>
       </c>
       <c r="L92" t="n">
-        <v>9737000000</v>
+        <v>8282000000</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
-        <v>288018000000</v>
+        <v>285899000000</v>
       </c>
     </row>
     <row r="93">
@@ -8801,28 +9599,38 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3665743000000</v>
+        <v>3841314000000</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
+      <c r="F93" t="n">
+        <v>2.76</v>
+      </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>3373411000000</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+        <v>3555171000000</v>
+      </c>
+      <c r="I93" t="n">
+        <v>48970000000</v>
+      </c>
+      <c r="J93" t="n">
+        <v>-125811000000</v>
+      </c>
+      <c r="K93" t="n">
+        <v>24101000000</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8649000000</v>
+      </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
-        <v>292332000000</v>
+        <v>286143000000</v>
       </c>
     </row>
     <row r="94">
@@ -8833,38 +9641,38 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3744305000000</v>
+        <v>3773884000000</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
-        <v>4.1</v>
+        <v>3.12</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>3441223000000</v>
+        <v>3485866000000</v>
       </c>
       <c r="I94" t="n">
-        <v>64557000000</v>
+        <v>16087000000</v>
       </c>
       <c r="J94" t="n">
-        <v>23794000000</v>
+        <v>-86289000000</v>
       </c>
       <c r="K94" t="n">
-        <v>-111241000000</v>
+        <v>5897000000</v>
       </c>
       <c r="L94" t="n">
-        <v>12622000000</v>
+        <v>9737000000</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
-        <v>303082000000</v>
+        <v>288018000000</v>
       </c>
     </row>
     <row r="95">
@@ -8875,38 +9683,40 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3868240000000</v>
+        <v>3665743000000</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
-        <v>4.75</v>
+        <v>12.09</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>3555724000000</v>
+        <v>3373411000000</v>
       </c>
       <c r="I95" t="n">
-        <v>14642000000</v>
+        <v>-126257000000</v>
       </c>
       <c r="J95" t="n">
-        <v>5551000000</v>
+        <v>-137819000000</v>
       </c>
       <c r="K95" t="n">
-        <v>-92376000000</v>
+        <v>107119000000</v>
       </c>
       <c r="L95" t="n">
-        <v>14472000000</v>
+        <v>37676000000</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>128695000000</v>
+      </c>
       <c r="P95" t="n">
-        <v>312516000000</v>
+        <v>292332000000</v>
       </c>
     </row>
     <row r="96">
@@ -8917,38 +9727,38 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3898333000000</v>
+        <v>3744305000000</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>3580962000000</v>
+        <v>3441223000000</v>
       </c>
       <c r="I96" t="n">
-        <v>10326000000</v>
+        <v>64557000000</v>
       </c>
       <c r="J96" t="n">
-        <v>-12239000000</v>
+        <v>23794000000</v>
       </c>
       <c r="K96" t="n">
-        <v>-47257000000</v>
+        <v>-111241000000</v>
       </c>
       <c r="L96" t="n">
-        <v>13151000000</v>
+        <v>12622000000</v>
       </c>
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
-        <v>317371000000</v>
+        <v>303082000000</v>
       </c>
     </row>
     <row r="97">
@@ -8959,28 +9769,38 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2023-12-31</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3875393000000</v>
+        <v>3868240000000</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>4.75</v>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>3547515000000</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+        <v>3555724000000</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14642000000</v>
+      </c>
+      <c r="J97" t="n">
+        <v>5551000000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-92376000000</v>
+      </c>
+      <c r="L97" t="n">
+        <v>14472000000</v>
+      </c>
       <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
-        <v>327878000000</v>
+        <v>312516000000</v>
       </c>
     </row>
     <row r="98">
@@ -8991,38 +9811,38 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4090727000000</v>
+        <v>3898333000000</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="n">
-        <v>4.44</v>
+        <v>4.33</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>3754090000000</v>
+        <v>3580962000000</v>
       </c>
       <c r="I98" t="n">
-        <v>141168000000</v>
+        <v>10326000000</v>
       </c>
       <c r="J98" t="n">
-        <v>-43379000000</v>
+        <v>-12239000000</v>
       </c>
       <c r="K98" t="n">
-        <v>-154158000000</v>
+        <v>-47257000000</v>
       </c>
       <c r="L98" t="n">
-        <v>13419000000</v>
+        <v>13151000000</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
-        <v>336637000000</v>
+        <v>317371000000</v>
       </c>
     </row>
     <row r="99">
@@ -9033,38 +9853,40 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4143003000000</v>
+        <v>3875393000000</v>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="n">
-        <v>6.12</v>
+        <v>16.23</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>3802451000000</v>
+        <v>3547515000000</v>
       </c>
       <c r="I99" t="n">
-        <v>168406000000</v>
+        <v>-25571000000</v>
       </c>
       <c r="J99" t="n">
-        <v>-137618000000</v>
+        <v>67643000000</v>
       </c>
       <c r="K99" t="n">
-        <v>-115689000000</v>
+        <v>12974000000</v>
       </c>
       <c r="L99" t="n">
-        <v>18149000000</v>
+        <v>49552000000</v>
       </c>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+      <c r="O99" t="n">
+        <v>158104000000</v>
+      </c>
       <c r="P99" t="n">
-        <v>340552000000</v>
+        <v>327878000000</v>
       </c>
     </row>
     <row r="100">
@@ -9075,38 +9897,38 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-09-30</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4210048000000</v>
+        <v>4090727000000</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
-        <v>4.37</v>
+        <v>4.44</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>3864212000000</v>
+        <v>3754090000000</v>
       </c>
       <c r="I100" t="n">
-        <v>179152000000</v>
+        <v>141168000000</v>
       </c>
       <c r="J100" t="n">
-        <v>-181023000000</v>
+        <v>-43379000000</v>
       </c>
       <c r="K100" t="n">
-        <v>-189770000000</v>
+        <v>-154158000000</v>
       </c>
       <c r="L100" t="n">
-        <v>12898000000</v>
+        <v>13419000000</v>
       </c>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
-        <v>345836000000</v>
+        <v>336637000000</v>
       </c>
     </row>
     <row r="101">
@@ -9117,28 +9939,38 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4002814000000</v>
+        <v>4143003000000</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>6.12</v>
+      </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>3658056000000</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+        <v>3802451000000</v>
+      </c>
+      <c r="I101" t="n">
+        <v>168406000000</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-137618000000</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-115689000000</v>
+      </c>
+      <c r="L101" t="n">
+        <v>18149000000</v>
+      </c>
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
-        <v>344758000000</v>
+        <v>340552000000</v>
       </c>
     </row>
     <row r="102">
@@ -9149,38 +9981,38 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-09-30</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4357856000000</v>
+        <v>4210048000000</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>5.07</v>
+        <v>4.37</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>4006436000000</v>
+        <v>3864212000000</v>
       </c>
       <c r="I102" t="n">
-        <v>318059000000</v>
+        <v>179152000000</v>
       </c>
       <c r="J102" t="n">
-        <v>-118076000000</v>
+        <v>-181023000000</v>
       </c>
       <c r="K102" t="n">
-        <v>-251839000000</v>
+        <v>-189770000000</v>
       </c>
       <c r="L102" t="n">
-        <v>14643000000</v>
+        <v>12898000000</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
-        <v>351420000000</v>
+        <v>345836000000</v>
       </c>
     </row>
     <row r="103">
@@ -9191,38 +10023,166 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2024-12-31</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4552482000000</v>
+        <v>4002814000000</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
-        <v>5.24</v>
+        <v>19.75</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>4195558000000</v>
+        <v>3658056000000</v>
       </c>
       <c r="I103" t="n">
-        <v>440863000000</v>
+        <v>63447000000</v>
       </c>
       <c r="J103" t="n">
-        <v>-291136000000</v>
+        <v>-163403000000</v>
       </c>
       <c r="K103" t="n">
-        <v>-222292000000</v>
+        <v>-42012000000</v>
       </c>
       <c r="L103" t="n">
-        <v>14987000000</v>
+        <v>58471000000</v>
       </c>
       <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
+      <c r="O103" t="n">
+        <v>177556000000</v>
+      </c>
       <c r="P103" t="n">
+        <v>344758000000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>4357856000000</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>4006436000000</v>
+      </c>
+      <c r="I104" t="n">
+        <v>318059000000</v>
+      </c>
+      <c r="J104" t="n">
+        <v>-118076000000</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-251839000000</v>
+      </c>
+      <c r="L104" t="n">
+        <v>14643000000</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="n">
+        <v>351420000000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>4552482000000</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>4195558000000</v>
+      </c>
+      <c r="I105" t="n">
+        <v>440863000000</v>
+      </c>
+      <c r="J105" t="n">
+        <v>-291136000000</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-222292000000</v>
+      </c>
+      <c r="L105" t="n">
+        <v>14987000000</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="n">
         <v>356924000000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>JP Morgan</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>4560205000000</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>4199993000000</v>
+      </c>
+      <c r="I106" t="n">
+        <v>393090000000</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-312447000000</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-267506000000</v>
+      </c>
+      <c r="L106" t="n">
+        <v>14393000000</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="n">
+        <v>360212000000</v>
       </c>
     </row>
   </sheetData>
